--- a/data/positive_signals/Disease - Total occurrences (B-to-X) - clavulanic acid - all categories.xlsx
+++ b/data/positive_signals/Disease - Total occurrences (B-to-X) - clavulanic acid - all categories.xlsx
@@ -108,79 +108,79 @@
     <t>clavulanic acid</t>
   </si>
   <si>
-    <t>128262658</t>
+    <t>59760513</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>78945273</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>63232234</t>
+  </si>
+  <si>
+    <t>58952384</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>106797480</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>61861106</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>129715021</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>125370028</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>145398167</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>172995241</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>126147655</t>
-  </si>
-  <si>
     <t>217103</t>
   </si>
   <si>
     <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
   </si>
   <si>
-    <t>145627241</t>
-  </si>
-  <si>
-    <t>179086481</t>
+    <t>112913122</t>
   </si>
   <si>
     <t>produces</t>
   </si>
   <si>
+    <t>81198931</t>
+  </si>
+  <si>
     <t>837007</t>
   </si>
   <si>
     <t>enzymes</t>
   </si>
   <si>
-    <t>124599220</t>
-  </si>
-  <si>
-    <t>118578080</t>
+    <t>58463064</t>
+  </si>
+  <si>
+    <t>does not inhibit</t>
+  </si>
+  <si>
+    <t>58193737</t>
+  </si>
+  <si>
+    <t>60957270</t>
+  </si>
+  <si>
+    <t>52321445</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>133516182</t>
-  </si>
-  <si>
-    <t>124894654</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>127341753</t>
+    <t>67180527</t>
   </si>
   <si>
     <t>365074</t>
@@ -189,16 +189,16 @@
     <t>glycerin</t>
   </si>
   <si>
-    <t>139854919</t>
-  </si>
-  <si>
-    <t>134808757</t>
-  </si>
-  <si>
-    <t>180799608</t>
-  </si>
-  <si>
-    <t>149218596</t>
+    <t>82793902</t>
+  </si>
+  <si>
+    <t>68354753</t>
+  </si>
+  <si>
+    <t>73459348</t>
+  </si>
+  <si>
+    <t>114627330</t>
   </si>
   <si>
     <t>836626</t>
@@ -207,7 +207,7 @@
     <t>sodium chloride</t>
   </si>
   <si>
-    <t>171721194</t>
+    <t>105529104</t>
   </si>
   <si>
     <t>320774</t>
@@ -216,7 +216,16 @@
     <t>water</t>
   </si>
   <si>
-    <t>146548058</t>
+    <t>80148686</t>
+  </si>
+  <si>
+    <t>3001368</t>
+  </si>
+  <si>
+    <t>atpase, aminophospholipid transporter-like, class i, type 8a, member 2</t>
+  </si>
+  <si>
+    <t>69565104</t>
   </si>
   <si>
     <t>2824923</t>
@@ -225,16 +234,7 @@
     <t>zonal</t>
   </si>
   <si>
-    <t>141668283</t>
-  </si>
-  <si>
-    <t>3001368</t>
-  </si>
-  <si>
-    <t>atpase, aminophospholipid transporter-like, class i, type 8a, member 2</t>
-  </si>
-  <si>
-    <t>135998649</t>
+    <t>77520513</t>
   </si>
   <si>
     <t>5646027</t>
@@ -243,46 +243,46 @@
     <t>antibiotics</t>
   </si>
   <si>
-    <t>172995282</t>
-  </si>
-  <si>
-    <t>118117903</t>
-  </si>
-  <si>
-    <t>128026389</t>
-  </si>
-  <si>
-    <t>128732795</t>
-  </si>
-  <si>
-    <t>128740235</t>
+    <t>62338332</t>
+  </si>
+  <si>
+    <t>51853739</t>
+  </si>
+  <si>
+    <t>62345525</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>106797536</t>
+  </si>
+  <si>
+    <t>61634758</t>
+  </si>
+  <si>
+    <t>62353758</t>
+  </si>
+  <si>
+    <t>79661792</t>
+  </si>
+  <si>
+    <t>73179959</t>
+  </si>
+  <si>
+    <t>62345456</t>
   </si>
   <si>
     <t>is compared with</t>
   </si>
   <si>
-    <t>128740288</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>139588361</t>
-  </si>
-  <si>
-    <t>128748531</t>
-  </si>
-  <si>
-    <t>146020521</t>
-  </si>
-  <si>
     <t>5793192</t>
   </si>
   <si>
     <t>steroids</t>
   </si>
   <si>
-    <t>169684902</t>
+    <t>103574000</t>
   </si>
   <si>
     <t>4877522</t>
@@ -291,10 +291,10 @@
     <t>amphetamine</t>
   </si>
   <si>
-    <t>164428835</t>
-  </si>
-  <si>
-    <t>118339561</t>
+    <t>55947579</t>
+  </si>
+  <si>
+    <t>98220908</t>
   </si>
   <si>
     <t>278310</t>
@@ -303,25 +303,25 @@
     <t>arginine</t>
   </si>
   <si>
-    <t>134597077</t>
-  </si>
-  <si>
-    <t>180892604</t>
+    <t>114720168</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
+    <t>68242082</t>
+  </si>
+  <si>
     <t>3170852</t>
   </si>
   <si>
     <t>acids</t>
   </si>
   <si>
-    <t>134482896</t>
-  </si>
-  <si>
-    <t>192881525</t>
+    <t>68090473</t>
+  </si>
+  <si>
+    <t>126672201</t>
   </si>
   <si>
     <t>4028698</t>
@@ -330,7 +330,7 @@
     <t>morphine</t>
   </si>
   <si>
-    <t>195942367</t>
+    <t>129737384</t>
   </si>
   <si>
     <t>520183</t>
@@ -339,13 +339,13 @@
     <t>plasmids</t>
   </si>
   <si>
-    <t>171832749</t>
-  </si>
-  <si>
-    <t>190511090</t>
-  </si>
-  <si>
-    <t>134330593</t>
+    <t>124299118</t>
+  </si>
+  <si>
+    <t>67836385</t>
+  </si>
+  <si>
+    <t>105722400</t>
   </si>
   <si>
     <t>3740186</t>
@@ -354,7 +354,7 @@
     <t>glutamate</t>
   </si>
   <si>
-    <t>120243854</t>
+    <t>53889138</t>
   </si>
   <si>
     <t>4048644</t>
@@ -363,19 +363,19 @@
     <t>gentamicins</t>
   </si>
   <si>
-    <t>133162126</t>
-  </si>
-  <si>
-    <t>131100854</t>
-  </si>
-  <si>
-    <t>125437610</t>
-  </si>
-  <si>
-    <t>121427127</t>
-  </si>
-  <si>
-    <t>131763113</t>
+    <t>54995776</t>
+  </si>
+  <si>
+    <t>66766098</t>
+  </si>
+  <si>
+    <t>64714624</t>
+  </si>
+  <si>
+    <t>59077061</t>
+  </si>
+  <si>
+    <t>65413042</t>
   </si>
   <si>
     <t>3097558</t>
@@ -384,7 +384,85 @@
     <t>human plasma</t>
   </si>
   <si>
-    <t>142313746</t>
+    <t>75878374</t>
+  </si>
+  <si>
+    <t>3815644</t>
+  </si>
+  <si>
+    <t>tyrosine</t>
+  </si>
+  <si>
+    <t>122640104</t>
+  </si>
+  <si>
+    <t>153796</t>
+  </si>
+  <si>
+    <t>pharmacologic substance</t>
+  </si>
+  <si>
+    <t>87350088</t>
+  </si>
+  <si>
+    <t>632127</t>
+  </si>
+  <si>
+    <t>acetate</t>
+  </si>
+  <si>
+    <t>64312909</t>
+  </si>
+  <si>
+    <t>3326060</t>
+  </si>
+  <si>
+    <t>microbicides</t>
+  </si>
+  <si>
+    <t>112858997</t>
+  </si>
+  <si>
+    <t>64713558</t>
+  </si>
+  <si>
+    <t>66210290</t>
+  </si>
+  <si>
+    <t>171691</t>
+  </si>
+  <si>
+    <t>nuclear proteins</t>
+  </si>
+  <si>
+    <t>58312418</t>
+  </si>
+  <si>
+    <t>807159</t>
+  </si>
+  <si>
+    <t>tetracycline</t>
+  </si>
+  <si>
+    <t>81861850</t>
+  </si>
+  <si>
+    <t>5140424</t>
+  </si>
+  <si>
+    <t>methanol</t>
+  </si>
+  <si>
+    <t>53563196</t>
+  </si>
+  <si>
+    <t>4034857</t>
+  </si>
+  <si>
+    <t>edetic acid</t>
+  </si>
+  <si>
+    <t>56036069</t>
   </si>
   <si>
     <t>614189</t>
@@ -393,85 +471,7 @@
     <t>pyruvate</t>
   </si>
   <si>
-    <t>179086279</t>
-  </si>
-  <si>
-    <t>3815644</t>
-  </si>
-  <si>
-    <t>tyrosine</t>
-  </si>
-  <si>
-    <t>188783246</t>
-  </si>
-  <si>
-    <t>153796</t>
-  </si>
-  <si>
-    <t>pharmacologic substance</t>
-  </si>
-  <si>
-    <t>153638487</t>
-  </si>
-  <si>
-    <t>632127</t>
-  </si>
-  <si>
-    <t>acetate</t>
-  </si>
-  <si>
-    <t>130664280</t>
-  </si>
-  <si>
-    <t>3326060</t>
-  </si>
-  <si>
-    <t>microbicides</t>
-  </si>
-  <si>
-    <t>131099933</t>
-  </si>
-  <si>
-    <t>132697643</t>
-  </si>
-  <si>
-    <t>179033274</t>
-  </si>
-  <si>
-    <t>171691</t>
-  </si>
-  <si>
-    <t>nuclear proteins</t>
-  </si>
-  <si>
-    <t>124720667</t>
-  </si>
-  <si>
-    <t>807159</t>
-  </si>
-  <si>
-    <t>tetracycline</t>
-  </si>
-  <si>
-    <t>148330176</t>
-  </si>
-  <si>
-    <t>5140424</t>
-  </si>
-  <si>
-    <t>methanol</t>
-  </si>
-  <si>
-    <t>119887654</t>
-  </si>
-  <si>
-    <t>4034857</t>
-  </si>
-  <si>
-    <t>edetic acid</t>
-  </si>
-  <si>
-    <t>122419884</t>
+    <t>112912918</t>
   </si>
   <si>
     <t>4035358</t>
@@ -480,7 +480,7 @@
     <t>nonesterified fatty acids</t>
   </si>
   <si>
-    <t>154645817</t>
+    <t>88422520</t>
   </si>
   <si>
     <t>3742585</t>
@@ -489,13 +489,13 @@
     <t>anti-bacterial agents</t>
   </si>
   <si>
-    <t>150349702</t>
-  </si>
-  <si>
-    <t>138886486</t>
-  </si>
-  <si>
-    <t>128723818</t>
+    <t>72470601</t>
+  </si>
+  <si>
+    <t>62330847</t>
+  </si>
+  <si>
+    <t>85850670</t>
   </si>
   <si>
     <t>791704</t>
@@ -504,7 +504,7 @@
     <t>threonine</t>
   </si>
   <si>
-    <t>134603835</t>
+    <t>68248999</t>
   </si>
   <si>
     <t>4034665</t>
@@ -513,7 +513,7 @@
     <t>enzyme inhibitors</t>
   </si>
   <si>
-    <t>124090234</t>
+    <t>57706683</t>
   </si>
   <si>
     <t>4042108</t>
@@ -522,19 +522,19 @@
     <t>erythromycin</t>
   </si>
   <si>
-    <t>133742401</t>
-  </si>
-  <si>
-    <t>133742467</t>
-  </si>
-  <si>
-    <t>163258051</t>
-  </si>
-  <si>
-    <t>142780692</t>
-  </si>
-  <si>
-    <t>150111968</t>
+    <t>97058422</t>
+  </si>
+  <si>
+    <t>67353046</t>
+  </si>
+  <si>
+    <t>67353124</t>
+  </si>
+  <si>
+    <t>76435721</t>
+  </si>
+  <si>
+    <t>85613805</t>
   </si>
   <si>
     <t>is higher than</t>
@@ -546,7 +546,7 @@
     <t>rifampin</t>
   </si>
   <si>
-    <t>119023415</t>
+    <t>56566820</t>
   </si>
   <si>
     <t>605322</t>
@@ -555,7 +555,7 @@
     <t>ammonia</t>
   </si>
   <si>
-    <t>135999573</t>
+    <t>69565972</t>
   </si>
   <si>
     <t>3780626</t>
@@ -564,7 +564,7 @@
     <t>nf-kappa b p65</t>
   </si>
   <si>
-    <t>134818254</t>
+    <t>68364874</t>
   </si>
   <si>
     <t>836198</t>
@@ -573,7 +573,7 @@
     <t>ciprofloxacin</t>
   </si>
   <si>
-    <t>193119532</t>
+    <t>126928840</t>
   </si>
   <si>
     <t>2601971</t>
@@ -582,7 +582,7 @@
     <t>regulatory protein</t>
   </si>
   <si>
-    <t>135892858</t>
+    <t>69540162</t>
   </si>
   <si>
     <t>4414784</t>
@@ -591,10 +591,10 @@
     <t>chloramphenicol</t>
   </si>
   <si>
-    <t>189560759</t>
-  </si>
-  <si>
-    <t>197610861</t>
+    <t>123356740</t>
+  </si>
+  <si>
+    <t>131450861</t>
   </si>
   <si>
     <t>4048707</t>
@@ -603,7 +603,7 @@
     <t>growth inhibitors</t>
   </si>
   <si>
-    <t>131415725</t>
+    <t>67889363</t>
   </si>
   <si>
     <t>342854</t>
@@ -612,7 +612,7 @@
     <t>oleic acid</t>
   </si>
   <si>
-    <t>154647136</t>
+    <t>88424277</t>
   </si>
   <si>
     <t>4028714</t>
@@ -621,13 +621,13 @@
     <t>metronidazole</t>
   </si>
   <si>
-    <t>134076263</t>
-  </si>
-  <si>
-    <t>134003004</t>
-  </si>
-  <si>
-    <t>136633803</t>
+    <t>70240347</t>
+  </si>
+  <si>
+    <t>67680217</t>
+  </si>
+  <si>
+    <t>67613777</t>
   </si>
   <si>
     <t>4027577</t>
@@ -636,34 +636,34 @@
     <t>penicillins</t>
   </si>
   <si>
-    <t>123932014</t>
-  </si>
-  <si>
-    <t>122905944</t>
-  </si>
-  <si>
-    <t>118337408</t>
-  </si>
-  <si>
-    <t>157898078</t>
-  </si>
-  <si>
-    <t>128547660</t>
-  </si>
-  <si>
-    <t>128740760</t>
-  </si>
-  <si>
-    <t>121770215</t>
-  </si>
-  <si>
-    <t>123759963</t>
-  </si>
-  <si>
-    <t>118337287</t>
-  </si>
-  <si>
-    <t>142478736</t>
+    <t>56399379</t>
+  </si>
+  <si>
+    <t>57262113</t>
+  </si>
+  <si>
+    <t>55388572</t>
+  </si>
+  <si>
+    <t>53274702</t>
+  </si>
+  <si>
+    <t>62160783</t>
+  </si>
+  <si>
+    <t>52313522</t>
+  </si>
+  <si>
+    <t>60944927</t>
+  </si>
+  <si>
+    <t>91606581</t>
+  </si>
+  <si>
+    <t>76138330</t>
+  </si>
+  <si>
+    <t>62345984</t>
   </si>
   <si>
     <t>215718</t>
@@ -672,7 +672,7 @@
     <t>benzodiazepines</t>
   </si>
   <si>
-    <t>172445934</t>
+    <t>106233393</t>
   </si>
   <si>
     <t>908195</t>
@@ -681,10 +681,10 @@
     <t>doxycycline</t>
   </si>
   <si>
-    <t>164311074</t>
-  </si>
-  <si>
-    <t>163258195</t>
+    <t>98112147</t>
+  </si>
+  <si>
+    <t>97058577</t>
   </si>
   <si>
     <t>5265566</t>
@@ -693,7 +693,7 @@
     <t>reagents</t>
   </si>
   <si>
-    <t>133324423</t>
+    <t>66859168</t>
   </si>
   <si>
     <t>2456776</t>
@@ -702,37 +702,37 @@
     <t>beta-lactamase</t>
   </si>
   <si>
-    <t>141730959</t>
-  </si>
-  <si>
-    <t>119028249</t>
-  </si>
-  <si>
-    <t>129046660</t>
-  </si>
-  <si>
-    <t>132682170</t>
-  </si>
-  <si>
-    <t>145283475</t>
-  </si>
-  <si>
-    <t>122647206</t>
-  </si>
-  <si>
-    <t>177676660</t>
-  </si>
-  <si>
-    <t>118713988</t>
-  </si>
-  <si>
-    <t>122008830</t>
-  </si>
-  <si>
-    <t>139196983</t>
-  </si>
-  <si>
-    <t>132682110</t>
+    <t>62650245</t>
+  </si>
+  <si>
+    <t>75397152</t>
+  </si>
+  <si>
+    <t>59773904</t>
+  </si>
+  <si>
+    <t>52474968</t>
+  </si>
+  <si>
+    <t>72878817</t>
+  </si>
+  <si>
+    <t>66293012</t>
+  </si>
+  <si>
+    <t>78828933</t>
+  </si>
+  <si>
+    <t>111505777</t>
+  </si>
+  <si>
+    <t>53737175</t>
+  </si>
+  <si>
+    <t>66293062</t>
+  </si>
+  <si>
+    <t>55625981</t>
   </si>
   <si>
     <t>5301205</t>
@@ -741,7 +741,7 @@
     <t>anticonvulsants</t>
   </si>
   <si>
-    <t>158100002</t>
+    <t>91976056</t>
   </si>
   <si>
     <t>5084473</t>
@@ -750,28 +750,28 @@
     <t>ampicillin</t>
   </si>
   <si>
-    <t>139008471</t>
-  </si>
-  <si>
-    <t>123473635</t>
-  </si>
-  <si>
-    <t>122803747</t>
-  </si>
-  <si>
-    <t>123430934</t>
-  </si>
-  <si>
-    <t>125114095</t>
-  </si>
-  <si>
-    <t>139008721</t>
-  </si>
-  <si>
-    <t>123636217</t>
-  </si>
-  <si>
-    <t>137251778</t>
+    <t>57252831</t>
+  </si>
+  <si>
+    <t>56414833</t>
+  </si>
+  <si>
+    <t>60497044</t>
+  </si>
+  <si>
+    <t>70833407</t>
+  </si>
+  <si>
+    <t>72619338</t>
+  </si>
+  <si>
+    <t>58740557</t>
+  </si>
+  <si>
+    <t>57088320</t>
+  </si>
+  <si>
+    <t>72619612</t>
   </si>
   <si>
     <t>4027409</t>
@@ -780,7 +780,7 @@
     <t>minocycline</t>
   </si>
   <si>
-    <t>193119457</t>
+    <t>126928758</t>
   </si>
   <si>
     <t>3134759</t>
@@ -789,10 +789,10 @@
     <t>agent</t>
   </si>
   <si>
-    <t>133215284</t>
-  </si>
-  <si>
-    <t>138356207</t>
+    <t>66822109</t>
+  </si>
+  <si>
+    <t>71966774</t>
   </si>
   <si>
     <t>4042060</t>
@@ -801,7 +801,7 @@
     <t>cellulose</t>
   </si>
   <si>
-    <t>164906466</t>
+    <t>98696121</t>
   </si>
   <si>
     <t>44377</t>
@@ -810,7 +810,7 @@
     <t>esterases</t>
   </si>
   <si>
-    <t>124599331</t>
+    <t>58193845</t>
   </si>
   <si>
     <t>4943347</t>
@@ -819,7 +819,7 @@
     <t>apomorphine</t>
   </si>
   <si>
-    <t>195942237</t>
+    <t>129737210</t>
   </si>
   <si>
     <t>79507</t>
@@ -828,7 +828,7 @@
     <t>interleukin 2 receptor, alpha</t>
   </si>
   <si>
-    <t>161318520</t>
+    <t>95085026</t>
   </si>
   <si>
     <t>140853</t>
@@ -837,7 +837,7 @@
     <t>glyceraldehyde-3-phosphate dehydrogenases</t>
   </si>
   <si>
-    <t>190509184</t>
+    <t>124297228</t>
   </si>
   <si>
     <t>94202</t>
@@ -846,7 +846,7 @@
     <t>asparagine</t>
   </si>
   <si>
-    <t>180892845</t>
+    <t>114720442</t>
   </si>
   <si>
     <t>4047639</t>
@@ -855,7 +855,7 @@
     <t>glutamates</t>
   </si>
   <si>
-    <t>178711700</t>
+    <t>112493177</t>
   </si>
   <si>
     <t>5108168</t>
@@ -864,13 +864,13 @@
     <t>penicillin g</t>
   </si>
   <si>
-    <t>127862389</t>
-  </si>
-  <si>
-    <t>148782015</t>
-  </si>
-  <si>
-    <t>123473218</t>
+    <t>61471294</t>
+  </si>
+  <si>
+    <t>84280487</t>
+  </si>
+  <si>
+    <t>57087513</t>
   </si>
   <si>
     <t>3814648</t>
@@ -879,7 +879,7 @@
     <t>trimethoprim-sulfamethoxazole combination</t>
   </si>
   <si>
-    <t>134734524</t>
+    <t>68243186</t>
   </si>
   <si>
     <t>2080587</t>
@@ -888,43 +888,43 @@
     <t>amoxicillin</t>
   </si>
   <si>
-    <t>124859358</t>
-  </si>
-  <si>
-    <t>122827969</t>
-  </si>
-  <si>
-    <t>118713685</t>
-  </si>
-  <si>
-    <t>120705271</t>
-  </si>
-  <si>
-    <t>132103333</t>
-  </si>
-  <si>
-    <t>150112052</t>
-  </si>
-  <si>
-    <t>126745738</t>
-  </si>
-  <si>
-    <t>161944417</t>
-  </si>
-  <si>
-    <t>123309544</t>
-  </si>
-  <si>
-    <t>118852992</t>
-  </si>
-  <si>
-    <t>125333626</t>
-  </si>
-  <si>
-    <t>122633673</t>
-  </si>
-  <si>
-    <t>133457411</t>
+    <t>67058515</t>
+  </si>
+  <si>
+    <t>85613851</t>
+  </si>
+  <si>
+    <t>95741565</t>
+  </si>
+  <si>
+    <t>58913768</t>
+  </si>
+  <si>
+    <t>58465671</t>
+  </si>
+  <si>
+    <t>52474610</t>
+  </si>
+  <si>
+    <t>54334855</t>
+  </si>
+  <si>
+    <t>52607261</t>
+  </si>
+  <si>
+    <t>65626547</t>
+  </si>
+  <si>
+    <t>56944446</t>
+  </si>
+  <si>
+    <t>56262920</t>
+  </si>
+  <si>
+    <t>56440752</t>
+  </si>
+  <si>
+    <t>60328672</t>
   </si>
   <si>
     <t>328698</t>
@@ -933,7 +933,7 @@
     <t>clindamycin</t>
   </si>
   <si>
-    <t>128729073</t>
+    <t>62335041</t>
   </si>
   <si>
     <t>215428</t>
@@ -942,7 +942,7 @@
     <t>mycophenolic acid</t>
   </si>
   <si>
-    <t>151419507</t>
+    <t>84998184</t>
   </si>
   <si>
     <t>579697</t>
@@ -951,16 +951,16 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>164586540</t>
-  </si>
-  <si>
-    <t>164311197</t>
-  </si>
-  <si>
-    <t>149045848</t>
-  </si>
-  <si>
-    <t>173218368</t>
+    <t>82672294</t>
+  </si>
+  <si>
+    <t>107030887</t>
+  </si>
+  <si>
+    <t>98390907</t>
+  </si>
+  <si>
+    <t>98112262</t>
   </si>
   <si>
     <t>2564727</t>
@@ -969,7 +969,19 @@
     <t>fluoroquinolones</t>
   </si>
   <si>
-    <t>174713952</t>
+    <t>108534635</t>
+  </si>
+  <si>
+    <t>311375</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>126372480</t>
+  </si>
+  <si>
+    <t>126374166</t>
   </si>
   <si>
     <t>5797767</t>
@@ -978,22 +990,10 @@
     <t>probenecid</t>
   </si>
   <si>
-    <t>142082806</t>
-  </si>
-  <si>
-    <t>135895603</t>
-  </si>
-  <si>
-    <t>311375</t>
-  </si>
-  <si>
-    <t>ornithine</t>
-  </si>
-  <si>
-    <t>192590688</t>
-  </si>
-  <si>
-    <t>192592154</t>
+    <t>69458707</t>
+  </si>
+  <si>
+    <t>75646988</t>
   </si>
   <si>
     <t>636666</t>
@@ -1002,7 +1002,7 @@
     <t>trimethoprim</t>
   </si>
   <si>
-    <t>162155645</t>
+    <t>95953735</t>
   </si>
   <si>
     <t>324623</t>
@@ -1011,22 +1011,22 @@
     <t>cephalosporin antibacterial [epc]</t>
   </si>
   <si>
-    <t>148618591</t>
-  </si>
-  <si>
-    <t>149045985</t>
-  </si>
-  <si>
-    <t>195206586</t>
-  </si>
-  <si>
-    <t>174381925</t>
-  </si>
-  <si>
-    <t>128686986</t>
-  </si>
-  <si>
-    <t>119423081</t>
+    <t>62306077</t>
+  </si>
+  <si>
+    <t>56931075</t>
+  </si>
+  <si>
+    <t>82149872</t>
+  </si>
+  <si>
+    <t>129019681</t>
+  </si>
+  <si>
+    <t>82672439</t>
+  </si>
+  <si>
+    <t>108200610</t>
   </si>
   <si>
     <t>2877243</t>
@@ -1035,10 +1035,10 @@
     <t>alpha ketoglutarate</t>
   </si>
   <si>
-    <t>117810605</t>
-  </si>
-  <si>
-    <t>188219740</t>
+    <t>122074487</t>
+  </si>
+  <si>
+    <t>51608764</t>
   </si>
   <si>
     <t>5244993</t>
@@ -1047,7 +1047,7 @@
     <t>soy proteins</t>
   </si>
   <si>
-    <t>149218667</t>
+    <t>82793968</t>
   </si>
   <si>
     <t>4048867</t>
@@ -1056,13 +1056,13 @@
     <t>imipenem</t>
   </si>
   <si>
-    <t>162102924</t>
-  </si>
-  <si>
-    <t>132649174</t>
-  </si>
-  <si>
-    <t>119023221</t>
+    <t>66296171</t>
+  </si>
+  <si>
+    <t>56566436</t>
+  </si>
+  <si>
+    <t>95899540</t>
   </si>
   <si>
     <t>76436</t>
@@ -1071,7 +1071,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>167282802</t>
+    <t>101083418</t>
   </si>
   <si>
     <t>5107007</t>
@@ -1080,7 +1080,7 @@
     <t>oxytetracycline</t>
   </si>
   <si>
-    <t>155124585</t>
+    <t>88900135</t>
   </si>
   <si>
     <t>3375503</t>
@@ -1089,25 +1089,25 @@
     <t>ceftazidime</t>
   </si>
   <si>
-    <t>144795168</t>
-  </si>
-  <si>
-    <t>185527838</t>
-  </si>
-  <si>
-    <t>149667015</t>
-  </si>
-  <si>
-    <t>121662869</t>
-  </si>
-  <si>
-    <t>139380978</t>
+    <t>103798286</t>
+  </si>
+  <si>
+    <t>72981551</t>
   </si>
   <si>
     <t>does not coexist with</t>
   </si>
   <si>
-    <t>170012018</t>
+    <t>83288062</t>
+  </si>
+  <si>
+    <t>55272779</t>
+  </si>
+  <si>
+    <t>119331705</t>
+  </si>
+  <si>
+    <t>78342524</t>
   </si>
   <si>
     <t>3815661</t>
@@ -1116,10 +1116,10 @@
     <t>tobramycin</t>
   </si>
   <si>
-    <t>131763384</t>
-  </si>
-  <si>
-    <t>134624181</t>
+    <t>65413212</t>
+  </si>
+  <si>
+    <t>68306154</t>
   </si>
   <si>
     <t>3814482</t>
@@ -1128,7 +1128,7 @@
     <t>pentamidine</t>
   </si>
   <si>
-    <t>167416308</t>
+    <t>101226805</t>
   </si>
   <si>
     <t>800916</t>
@@ -1137,7 +1137,7 @@
     <t>dihydroxyacetone sulfate</t>
   </si>
   <si>
-    <t>125234720</t>
+    <t>58754847</t>
   </si>
   <si>
     <t>4028122</t>
@@ -1146,22 +1146,22 @@
     <t>monobactams</t>
   </si>
   <si>
-    <t>128023957</t>
-  </si>
-  <si>
-    <t>148232193</t>
-  </si>
-  <si>
-    <t>125114476</t>
-  </si>
-  <si>
-    <t>184188255</t>
-  </si>
-  <si>
-    <t>139284501</t>
-  </si>
-  <si>
-    <t>121770648</t>
+    <t>58740900</t>
+  </si>
+  <si>
+    <t>75318397</t>
+  </si>
+  <si>
+    <t>55388996</t>
+  </si>
+  <si>
+    <t>61632072</t>
+  </si>
+  <si>
+    <t>81769657</t>
+  </si>
+  <si>
+    <t>117972624</t>
   </si>
   <si>
     <t>3787786</t>
@@ -1170,58 +1170,58 @@
     <t>beta-lactams</t>
   </si>
   <si>
-    <t>142466353</t>
-  </si>
-  <si>
-    <t>148781578</t>
-  </si>
-  <si>
-    <t>174381809</t>
-  </si>
-  <si>
-    <t>120488268</t>
-  </si>
-  <si>
-    <t>118339864</t>
-  </si>
-  <si>
-    <t>164451088</t>
-  </si>
-  <si>
-    <t>185264464</t>
+    <t>54151362</t>
+  </si>
+  <si>
+    <t>54150262</t>
+  </si>
+  <si>
+    <t>108200523</t>
+  </si>
+  <si>
+    <t>119054184</t>
   </si>
   <si>
     <t>does not stimulate</t>
   </si>
   <si>
+    <t>84280106</t>
+  </si>
+  <si>
+    <t>98254100</t>
+  </si>
+  <si>
+    <t>75983799</t>
+  </si>
+  <si>
     <t>4041585</t>
   </si>
   <si>
     <t>cefotaxime</t>
   </si>
   <si>
-    <t>136633741</t>
-  </si>
-  <si>
-    <t>140114895</t>
-  </si>
-  <si>
-    <t>129274213</t>
-  </si>
-  <si>
-    <t>136633666</t>
-  </si>
-  <si>
-    <t>120726199</t>
-  </si>
-  <si>
-    <t>193147331</t>
-  </si>
-  <si>
-    <t>139381111</t>
-  </si>
-  <si>
-    <t>190046304</t>
+    <t>58076696</t>
+  </si>
+  <si>
+    <t>123854005</t>
+  </si>
+  <si>
+    <t>70240261</t>
+  </si>
+  <si>
+    <t>73679467</t>
+  </si>
+  <si>
+    <t>70240210</t>
+  </si>
+  <si>
+    <t>126935498</t>
+  </si>
+  <si>
+    <t>65945833</t>
+  </si>
+  <si>
+    <t>72981629</t>
   </si>
   <si>
     <t>5227011</t>
@@ -1230,7 +1230,7 @@
     <t>porin</t>
   </si>
   <si>
-    <t>170012109</t>
+    <t>103798411</t>
   </si>
   <si>
     <t>2986598</t>
@@ -1239,7 +1239,16 @@
     <t>quinolone antibacterial agents</t>
   </si>
   <si>
-    <t>148791306</t>
+    <t>82338065</t>
+  </si>
+  <si>
+    <t>456706</t>
+  </si>
+  <si>
+    <t>cephalexin</t>
+  </si>
+  <si>
+    <t>82672214</t>
   </si>
   <si>
     <t>3814201</t>
@@ -1248,16 +1257,7 @@
     <t>sulfamethoxazole</t>
   </si>
   <si>
-    <t>162155696</t>
-  </si>
-  <si>
-    <t>456706</t>
-  </si>
-  <si>
-    <t>cephalexin</t>
-  </si>
-  <si>
-    <t>149045818</t>
+    <t>95953775</t>
   </si>
   <si>
     <t>5277267</t>
@@ -1266,16 +1266,16 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>148618580</t>
-  </si>
-  <si>
-    <t>121662936</t>
-  </si>
-  <si>
-    <t>131169122</t>
-  </si>
-  <si>
-    <t>123962896</t>
+    <t>60971665</t>
+  </si>
+  <si>
+    <t>64770434</t>
+  </si>
+  <si>
+    <t>55272853</t>
+  </si>
+  <si>
+    <t>82149838</t>
   </si>
   <si>
     <t>4041630</t>
@@ -1284,16 +1284,16 @@
     <t>cefuroxime</t>
   </si>
   <si>
-    <t>164397894</t>
-  </si>
-  <si>
-    <t>119023620</t>
-  </si>
-  <si>
-    <t>161926272</t>
-  </si>
-  <si>
-    <t>129274096</t>
+    <t>65945746</t>
+  </si>
+  <si>
+    <t>56567095</t>
+  </si>
+  <si>
+    <t>98165082</t>
+  </si>
+  <si>
+    <t>95726086</t>
   </si>
   <si>
     <t>4416196</t>
@@ -1302,28 +1302,28 @@
     <t>amoxicillin / clavulanate</t>
   </si>
   <si>
-    <t>133663570</t>
-  </si>
-  <si>
-    <t>133663709</t>
-  </si>
-  <si>
-    <t>161188743</t>
-  </si>
-  <si>
-    <t>204087079</t>
+    <t>67273421</t>
+  </si>
+  <si>
+    <t>94174235</t>
+  </si>
+  <si>
+    <t>67273144</t>
+  </si>
+  <si>
+    <t>137904594</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>160346786</t>
-  </si>
-  <si>
-    <t>133663731</t>
-  </si>
-  <si>
-    <t>133663554</t>
+    <t>94997107</t>
+  </si>
+  <si>
+    <t>67273118</t>
+  </si>
+  <si>
+    <t>67273348</t>
   </si>
   <si>
     <t>2507957</t>
@@ -1332,7 +1332,7 @@
     <t>yeast extract</t>
   </si>
   <si>
-    <t>118137939</t>
+    <t>51873878</t>
   </si>
   <si>
     <t>5318810</t>
@@ -1341,7 +1341,7 @@
     <t>vasotocin</t>
   </si>
   <si>
-    <t>195942390</t>
+    <t>129737400</t>
   </si>
   <si>
     <t>4762821</t>
@@ -1350,7 +1350,7 @@
     <t>colistin</t>
   </si>
   <si>
-    <t>158924618</t>
+    <t>92805373</t>
   </si>
   <si>
     <t>4028296</t>
@@ -1359,22 +1359,22 @@
     <t>piperacillin</t>
   </si>
   <si>
-    <t>126585877</t>
-  </si>
-  <si>
-    <t>125893425</t>
-  </si>
-  <si>
-    <t>128090609</t>
-  </si>
-  <si>
-    <t>123107897</t>
-  </si>
-  <si>
-    <t>126585802</t>
-  </si>
-  <si>
-    <t>126586057</t>
+    <t>60158347</t>
+  </si>
+  <si>
+    <t>59464896</t>
+  </si>
+  <si>
+    <t>61642192</t>
+  </si>
+  <si>
+    <t>60158640</t>
+  </si>
+  <si>
+    <t>60158453</t>
+  </si>
+  <si>
+    <t>56667523</t>
   </si>
   <si>
     <t>4041524</t>
@@ -1383,10 +1383,10 @@
     <t>diamines</t>
   </si>
   <si>
-    <t>121419299</t>
-  </si>
-  <si>
-    <t>121421207</t>
+    <t>54997408</t>
+  </si>
+  <si>
+    <t>54998972</t>
   </si>
   <si>
     <t>3814418</t>
@@ -1395,7 +1395,7 @@
     <t>polytetrafluoroethylene</t>
   </si>
   <si>
-    <t>142484911</t>
+    <t>76019374</t>
   </si>
   <si>
     <t>5512940</t>
@@ -1404,13 +1404,13 @@
     <t>cephalothin</t>
   </si>
   <si>
-    <t>148903844</t>
-  </si>
-  <si>
-    <t>121770418</t>
-  </si>
-  <si>
-    <t>120989788</t>
+    <t>55388812</t>
+  </si>
+  <si>
+    <t>54626097</t>
+  </si>
+  <si>
+    <t>82526545</t>
   </si>
   <si>
     <t>429931</t>
@@ -1419,7 +1419,7 @@
     <t>netilmicin</t>
   </si>
   <si>
-    <t>131763191</t>
+    <t>65413102</t>
   </si>
   <si>
     <t>3814241</t>
@@ -1428,7 +1428,7 @@
     <t>sulfones</t>
   </si>
   <si>
-    <t>137371102</t>
+    <t>70960041</t>
   </si>
   <si>
     <t>4041607</t>
@@ -1437,25 +1437,25 @@
     <t>cefoxitin</t>
   </si>
   <si>
-    <t>128885433</t>
-  </si>
-  <si>
-    <t>148618500</t>
-  </si>
-  <si>
-    <t>140537152</t>
-  </si>
-  <si>
-    <t>172509904</t>
-  </si>
-  <si>
-    <t>128729740</t>
-  </si>
-  <si>
-    <t>137355071</t>
-  </si>
-  <si>
-    <t>119422628</t>
+    <t>74209862</t>
+  </si>
+  <si>
+    <t>106401732</t>
+  </si>
+  <si>
+    <t>71033812</t>
+  </si>
+  <si>
+    <t>56930561</t>
+  </si>
+  <si>
+    <t>82149752</t>
+  </si>
+  <si>
+    <t>62497162</t>
+  </si>
+  <si>
+    <t>62335620</t>
   </si>
   <si>
     <t>3001062</t>
@@ -1464,7 +1464,7 @@
     <t>origin recognition complex subunit 3 (homo sapiens)</t>
   </si>
   <si>
-    <t>165586412</t>
+    <t>99390659</t>
   </si>
   <si>
     <t>2435345</t>
@@ -1473,7 +1473,7 @@
     <t>metrogyl</t>
   </si>
   <si>
-    <t>191461898</t>
+    <t>125250495</t>
   </si>
   <si>
     <t>5112239</t>
@@ -1482,13 +1482,13 @@
     <t>meropenem</t>
   </si>
   <si>
-    <t>188102842</t>
-  </si>
-  <si>
-    <t>163138168</t>
-  </si>
-  <si>
-    <t>175752193</t>
+    <t>109528456</t>
+  </si>
+  <si>
+    <t>96946450</t>
+  </si>
+  <si>
+    <t>121958076</t>
   </si>
   <si>
     <t>769749</t>
@@ -1497,7 +1497,7 @@
     <t>sigma factor</t>
   </si>
   <si>
-    <t>179813104</t>
+    <t>113589005</t>
   </si>
   <si>
     <t>528421</t>
@@ -1506,7 +1506,7 @@
     <t>chlorhexidine gluconate</t>
   </si>
   <si>
-    <t>189799124</t>
+    <t>123660062</t>
   </si>
   <si>
     <t>250190</t>
@@ -1515,16 +1515,16 @@
     <t>carbenicillin</t>
   </si>
   <si>
-    <t>127504407</t>
-  </si>
-  <si>
-    <t>129274436</t>
-  </si>
-  <si>
-    <t>123473395</t>
-  </si>
-  <si>
-    <t>119560821</t>
+    <t>53274797</t>
+  </si>
+  <si>
+    <t>57087748</t>
+  </si>
+  <si>
+    <t>65945988</t>
+  </si>
+  <si>
+    <t>61110743</t>
   </si>
   <si>
     <t>4840227</t>
@@ -1533,7 +1533,7 @@
     <t>peptones</t>
   </si>
   <si>
-    <t>118121278</t>
+    <t>51858471</t>
   </si>
   <si>
     <t>4041664</t>
@@ -1542,7 +1542,7 @@
     <t>carbapenems</t>
   </si>
   <si>
-    <t>196558250</t>
+    <t>130405665</t>
   </si>
   <si>
     <t>5198618</t>
@@ -1551,10 +1551,10 @@
     <t>cefepime</t>
   </si>
   <si>
-    <t>170012056</t>
-  </si>
-  <si>
-    <t>143073822</t>
+    <t>103798331</t>
+  </si>
+  <si>
+    <t>76640239</t>
   </si>
   <si>
     <t>533103</t>
@@ -1563,37 +1563,37 @@
     <t>sulbactam</t>
   </si>
   <si>
-    <t>127595595</t>
-  </si>
-  <si>
-    <t>157107362</t>
-  </si>
-  <si>
-    <t>127257660</t>
+    <t>90820069</t>
+  </si>
+  <si>
+    <t>62657460</t>
+  </si>
+  <si>
+    <t>82951931</t>
+  </si>
+  <si>
+    <t>126325761</t>
+  </si>
+  <si>
+    <t>60863503</t>
+  </si>
+  <si>
+    <t>52674222</t>
+  </si>
+  <si>
+    <t>80530533</t>
+  </si>
+  <si>
+    <t>60863585</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>129053370</t>
-  </si>
-  <si>
-    <t>127257587</t>
-  </si>
-  <si>
-    <t>146970780</t>
-  </si>
-  <si>
-    <t>118925724</t>
-  </si>
-  <si>
-    <t>192530811</t>
-  </si>
-  <si>
-    <t>127594820</t>
-  </si>
-  <si>
-    <t>149419388</t>
+    <t>64354348</t>
+  </si>
+  <si>
+    <t>64355248</t>
   </si>
   <si>
     <t>619424</t>
@@ -1602,7 +1602,7 @@
     <t>sulfisoxazole</t>
   </si>
   <si>
-    <t>158888078</t>
+    <t>92707139</t>
   </si>
   <si>
     <t>4042081</t>
@@ -1611,13 +1611,13 @@
     <t>cefaclor</t>
   </si>
   <si>
-    <t>142780805</t>
-  </si>
-  <si>
-    <t>183235721</t>
-  </si>
-  <si>
-    <t>183235741</t>
+    <t>117040538</t>
+  </si>
+  <si>
+    <t>76435827</t>
+  </si>
+  <si>
+    <t>117040503</t>
   </si>
   <si>
     <t>4041593</t>
@@ -1626,10 +1626,10 @@
     <t>cefoperazone</t>
   </si>
   <si>
-    <t>193161198</t>
-  </si>
-  <si>
-    <t>129046895</t>
+    <t>126969935</t>
+  </si>
+  <si>
+    <t>62650498</t>
   </si>
   <si>
     <t>4040797</t>
@@ -1638,10 +1638,10 @@
     <t>central nervous system agents</t>
   </si>
   <si>
-    <t>150637995</t>
-  </si>
-  <si>
-    <t>128262724</t>
+    <t>84190683</t>
+  </si>
+  <si>
+    <t>61861166</t>
   </si>
   <si>
     <t>2483258</t>
@@ -1650,7 +1650,7 @@
     <t>disk drug form</t>
   </si>
   <si>
-    <t>175017374</t>
+    <t>108895646</t>
   </si>
   <si>
     <t>400679</t>
@@ -1659,7 +1659,7 @@
     <t>cloxacillin</t>
   </si>
   <si>
-    <t>132444967</t>
+    <t>65988453</t>
   </si>
   <si>
     <t>820359</t>
@@ -1668,13 +1668,13 @@
     <t>penicillin-binding proteins</t>
   </si>
   <si>
-    <t>131488927</t>
-  </si>
-  <si>
-    <t>182003492</t>
-  </si>
-  <si>
-    <t>137242646</t>
+    <t>115795253</t>
+  </si>
+  <si>
+    <t>73345295</t>
+  </si>
+  <si>
+    <t>67956166</t>
   </si>
   <si>
     <t>600629</t>
@@ -1683,10 +1683,10 @@
     <t>cefmetazole</t>
   </si>
   <si>
-    <t>177809461</t>
-  </si>
-  <si>
-    <t>117964536</t>
+    <t>51745152</t>
+  </si>
+  <si>
+    <t>111684665</t>
   </si>
   <si>
     <t>4994768</t>
@@ -1695,7 +1695,7 @@
     <t>amidohydrolases</t>
   </si>
   <si>
-    <t>189188080</t>
+    <t>122976328</t>
   </si>
   <si>
     <t>411866</t>
@@ -1704,19 +1704,19 @@
     <t>moxalactam</t>
   </si>
   <si>
-    <t>128723512</t>
-  </si>
-  <si>
-    <t>128722341</t>
-  </si>
-  <si>
-    <t>120726245</t>
-  </si>
-  <si>
-    <t>128885352</t>
-  </si>
-  <si>
-    <t>123840250</t>
+    <t>62497107</t>
+  </si>
+  <si>
+    <t>62330665</t>
+  </si>
+  <si>
+    <t>62329370</t>
+  </si>
+  <si>
+    <t>58076799</t>
+  </si>
+  <si>
+    <t>57469811</t>
   </si>
   <si>
     <t>3814691</t>
@@ -1725,7 +1725,7 @@
     <t>sisomicin</t>
   </si>
   <si>
-    <t>131763304</t>
+    <t>65413173</t>
   </si>
   <si>
     <t>3814452</t>
@@ -1734,7 +1734,7 @@
     <t>penicillin v</t>
   </si>
   <si>
-    <t>161974739</t>
+    <t>95773283</t>
   </si>
   <si>
     <t>274400</t>
@@ -1743,10 +1743,10 @@
     <t>germanium</t>
   </si>
   <si>
-    <t>157835737</t>
-  </si>
-  <si>
-    <t>184061833</t>
+    <t>117846288</t>
+  </si>
+  <si>
+    <t>91645463</t>
   </si>
   <si>
     <t>503620</t>
@@ -1755,49 +1755,49 @@
     <t>ticarcillin</t>
   </si>
   <si>
-    <t>132648687</t>
-  </si>
-  <si>
-    <t>118569458</t>
-  </si>
-  <si>
-    <t>125453567</t>
-  </si>
-  <si>
-    <t>128745196</t>
-  </si>
-  <si>
-    <t>137774280</t>
-  </si>
-  <si>
-    <t>121770343</t>
-  </si>
-  <si>
-    <t>128724238</t>
-  </si>
-  <si>
-    <t>119390741</t>
-  </si>
-  <si>
-    <t>133629012</t>
-  </si>
-  <si>
-    <t>133623471</t>
-  </si>
-  <si>
-    <t>119390817</t>
-  </si>
-  <si>
-    <t>122625548</t>
-  </si>
-  <si>
-    <t>139057641</t>
-  </si>
-  <si>
-    <t>119618923</t>
-  </si>
-  <si>
-    <t>128740827</t>
+    <t>52312817</t>
+  </si>
+  <si>
+    <t>62330568</t>
+  </si>
+  <si>
+    <t>71361819</t>
+  </si>
+  <si>
+    <t>69896502</t>
+  </si>
+  <si>
+    <t>62346056</t>
+  </si>
+  <si>
+    <t>66295809</t>
+  </si>
+  <si>
+    <t>53337905</t>
+  </si>
+  <si>
+    <t>67150167</t>
+  </si>
+  <si>
+    <t>56902521</t>
+  </si>
+  <si>
+    <t>56902456</t>
+  </si>
+  <si>
+    <t>56189896</t>
+  </si>
+  <si>
+    <t>55388647</t>
+  </si>
+  <si>
+    <t>62350722</t>
+  </si>
+  <si>
+    <t>62331383</t>
+  </si>
+  <si>
+    <t>75105876</t>
   </si>
   <si>
     <t>3148759</t>
@@ -1806,7 +1806,7 @@
     <t>oxytocin, asp(5)-</t>
   </si>
   <si>
-    <t>138188410</t>
+    <t>71786258</t>
   </si>
   <si>
     <t>3806354</t>
@@ -1815,13 +1815,13 @@
     <t>third generation cephalosporin, nos</t>
   </si>
   <si>
-    <t>164191539</t>
-  </si>
-  <si>
-    <t>182173270</t>
-  </si>
-  <si>
-    <t>123612986</t>
+    <t>97994917</t>
+  </si>
+  <si>
+    <t>115951122</t>
+  </si>
+  <si>
+    <t>57174295</t>
   </si>
   <si>
     <t>2422274</t>
@@ -1830,19 +1830,19 @@
     <t>augmentin</t>
   </si>
   <si>
-    <t>174727806</t>
-  </si>
-  <si>
-    <t>117659527</t>
-  </si>
-  <si>
-    <t>151184305</t>
-  </si>
-  <si>
-    <t>141684211</t>
-  </si>
-  <si>
-    <t>142942180</t>
+    <t>75351995</t>
+  </si>
+  <si>
+    <t>108601816</t>
+  </si>
+  <si>
+    <t>86682996</t>
+  </si>
+  <si>
+    <t>78681901</t>
+  </si>
+  <si>
+    <t>51441854</t>
   </si>
   <si>
     <t>6121221</t>
@@ -1851,7 +1851,7 @@
     <t>fleroxacin</t>
   </si>
   <si>
-    <t>142681216</t>
+    <t>78438953</t>
   </si>
   <si>
     <t>722828</t>
@@ -1860,13 +1860,13 @@
     <t>penicillinase</t>
   </si>
   <si>
-    <t>135469867</t>
-  </si>
-  <si>
-    <t>122274027</t>
-  </si>
-  <si>
-    <t>122156022</t>
+    <t>71606374</t>
+  </si>
+  <si>
+    <t>55896385</t>
+  </si>
+  <si>
+    <t>55727974</t>
   </si>
   <si>
     <t>837573</t>
@@ -1875,10 +1875,10 @@
     <t>cefixime</t>
   </si>
   <si>
-    <t>163276076</t>
-  </si>
-  <si>
-    <t>128116058</t>
+    <t>97076856</t>
+  </si>
+  <si>
+    <t>61640551</t>
   </si>
   <si>
     <t>155361</t>
@@ -1887,7 +1887,7 @@
     <t>floxacillin</t>
   </si>
   <si>
-    <t>126607799</t>
+    <t>63405117</t>
   </si>
   <si>
     <t>3814448</t>
@@ -1896,7 +1896,7 @@
     <t>peptidyltransferase</t>
   </si>
   <si>
-    <t>188102879</t>
+    <t>121958107</t>
   </si>
   <si>
     <t>2335113</t>
@@ -1905,13 +1905,13 @@
     <t>extended-spectrum beta lactamase</t>
   </si>
   <si>
-    <t>176374235</t>
-  </si>
-  <si>
-    <t>126878247</t>
-  </si>
-  <si>
-    <t>183259663</t>
+    <t>110165126</t>
+  </si>
+  <si>
+    <t>60391945</t>
+  </si>
+  <si>
+    <t>117037802</t>
   </si>
   <si>
     <t>743627</t>
@@ -1920,7 +1920,7 @@
     <t>ceftizoxime</t>
   </si>
   <si>
-    <t>131078932</t>
+    <t>67598636</t>
   </si>
   <si>
     <t>5081351</t>
@@ -1929,10 +1929,10 @@
     <t>sultamicillin</t>
   </si>
   <si>
-    <t>153543564</t>
-  </si>
-  <si>
-    <t>153543613</t>
+    <t>87223391</t>
+  </si>
+  <si>
+    <t>87223463</t>
   </si>
   <si>
     <t>5098374</t>
@@ -1941,16 +1941,16 @@
     <t>clavulanate</t>
   </si>
   <si>
-    <t>136150015</t>
-  </si>
-  <si>
-    <t>204087092</t>
-  </si>
-  <si>
-    <t>130664121</t>
-  </si>
-  <si>
-    <t>141459624</t>
+    <t>137904606</t>
+  </si>
+  <si>
+    <t>69803465</t>
+  </si>
+  <si>
+    <t>64312701</t>
+  </si>
+  <si>
+    <t>77331532</t>
   </si>
   <si>
     <t>2632828</t>
@@ -1959,7 +1959,7 @@
     <t>dioxide</t>
   </si>
   <si>
-    <t>123457194</t>
+    <t>57071678</t>
   </si>
   <si>
     <t>4028750</t>
@@ -1968,10 +1968,10 @@
     <t>mezlocillin</t>
   </si>
   <si>
-    <t>127598362</t>
-  </si>
-  <si>
-    <t>131978701</t>
+    <t>61263451</t>
+  </si>
+  <si>
+    <t>65588607</t>
   </si>
   <si>
     <t>5698764</t>
@@ -1980,7 +1980,7 @@
     <t>cefadroxil</t>
   </si>
   <si>
-    <t>155963650</t>
+    <t>89692154</t>
   </si>
   <si>
     <t>485404</t>
@@ -1989,7 +1989,7 @@
     <t>glutamate acetyltransferase</t>
   </si>
   <si>
-    <t>183448762</t>
+    <t>117241563</t>
   </si>
   <si>
     <t>4751821</t>
@@ -1998,7 +1998,7 @@
     <t>dextrin</t>
   </si>
   <si>
-    <t>123305703</t>
+    <t>56894711</t>
   </si>
   <si>
     <t>4042277</t>
@@ -2007,10 +2007,10 @@
     <t>azlocillin</t>
   </si>
   <si>
-    <t>128072077</t>
-  </si>
-  <si>
-    <t>139151895</t>
+    <t>72736014</t>
+  </si>
+  <si>
+    <t>61680044</t>
   </si>
   <si>
     <t>5183101</t>
@@ -2019,22 +2019,22 @@
     <t>tazobactam</t>
   </si>
   <si>
-    <t>120561562</t>
-  </si>
-  <si>
-    <t>162034291</t>
-  </si>
-  <si>
-    <t>118569688</t>
-  </si>
-  <si>
-    <t>134257610</t>
-  </si>
-  <si>
-    <t>156597441</t>
-  </si>
-  <si>
-    <t>118569847</t>
+    <t>90459756</t>
+  </si>
+  <si>
+    <t>52313240</t>
+  </si>
+  <si>
+    <t>54194414</t>
+  </si>
+  <si>
+    <t>67850128</t>
+  </si>
+  <si>
+    <t>95800793</t>
+  </si>
+  <si>
+    <t>52313170</t>
   </si>
   <si>
     <t>736387</t>
@@ -2043,13 +2043,13 @@
     <t>cephalosporinase</t>
   </si>
   <si>
-    <t>124059649</t>
-  </si>
-  <si>
-    <t>142455002</t>
-  </si>
-  <si>
-    <t>124060530</t>
+    <t>78231136</t>
+  </si>
+  <si>
+    <t>57693870</t>
+  </si>
+  <si>
+    <t>57656240</t>
   </si>
   <si>
     <t>5048265</t>
@@ -2058,10 +2058,10 @@
     <t>boronic acid</t>
   </si>
   <si>
-    <t>193907949</t>
-  </si>
-  <si>
-    <t>191512631</t>
+    <t>125303304</t>
+  </si>
+  <si>
+    <t>127697119</t>
   </si>
   <si>
     <t>774156</t>
@@ -2070,10 +2070,10 @@
     <t>penicillin-binding protein 2</t>
   </si>
   <si>
-    <t>123416157</t>
-  </si>
-  <si>
-    <t>121575120</t>
+    <t>55193366</t>
+  </si>
+  <si>
+    <t>57024119</t>
   </si>
   <si>
     <t>4819158</t>
@@ -2082,7 +2082,7 @@
     <t>cefprozil</t>
   </si>
   <si>
-    <t>161426455</t>
+    <t>95223382</t>
   </si>
   <si>
     <t>5699386</t>
@@ -2091,13 +2091,13 @@
     <t>cefpodoxime</t>
   </si>
   <si>
-    <t>182330664</t>
-  </si>
-  <si>
-    <t>183258208</t>
-  </si>
-  <si>
-    <t>161426682</t>
+    <t>116123325</t>
+  </si>
+  <si>
+    <t>95223578</t>
+  </si>
+  <si>
+    <t>117036243</t>
   </si>
   <si>
     <t>3096414</t>
@@ -2106,7 +2106,7 @@
     <t>gemifloxacin</t>
   </si>
   <si>
-    <t>151082781</t>
+    <t>84630607</t>
   </si>
   <si>
     <t>2840284</t>
@@ -2115,7 +2115,7 @@
     <t>neogenin (homo sapiens)</t>
   </si>
   <si>
-    <t>155907382</t>
+    <t>89724646</t>
   </si>
   <si>
     <t>493765</t>
@@ -2124,13 +2124,13 @@
     <t>brl-25000</t>
   </si>
   <si>
-    <t>137973167</t>
-  </si>
-  <si>
-    <t>137616478</t>
-  </si>
-  <si>
-    <t>122609396</t>
+    <t>71654273</t>
+  </si>
+  <si>
+    <t>56225821</t>
+  </si>
+  <si>
+    <t>71299048</t>
   </si>
   <si>
     <t>2364483</t>
@@ -2139,7 +2139,7 @@
     <t>spektramox</t>
   </si>
   <si>
-    <t>175108877</t>
+    <t>108930352</t>
   </si>
   <si>
     <t>5143107</t>
@@ -2148,25 +2148,25 @@
     <t>ampc beta-lactamases</t>
   </si>
   <si>
-    <t>148277252</t>
-  </si>
-  <si>
-    <t>118218824</t>
-  </si>
-  <si>
-    <t>163463519</t>
-  </si>
-  <si>
-    <t>170012146</t>
-  </si>
-  <si>
-    <t>179597513</t>
-  </si>
-  <si>
-    <t>154176950</t>
-  </si>
-  <si>
-    <t>154177547</t>
+    <t>51993203</t>
+  </si>
+  <si>
+    <t>103798437</t>
+  </si>
+  <si>
+    <t>81875261</t>
+  </si>
+  <si>
+    <t>87923778</t>
+  </si>
+  <si>
+    <t>87924456</t>
+  </si>
+  <si>
+    <t>113374854</t>
+  </si>
+  <si>
+    <t>97256553</t>
   </si>
   <si>
     <t>95115</t>
@@ -2175,7 +2175,7 @@
     <t>carbapenemase</t>
   </si>
   <si>
-    <t>136289833</t>
+    <t>69946624</t>
   </si>
   <si>
     <t>2630026</t>
@@ -2184,7 +2184,7 @@
     <t>n-desmethylstobadine</t>
   </si>
   <si>
-    <t>146155678</t>
+    <t>79756718</t>
   </si>
   <si>
     <t>781629</t>
@@ -2193,7 +2193,7 @@
     <t>temocillin</t>
   </si>
   <si>
-    <t>125639252</t>
+    <t>59265214</t>
   </si>
   <si>
     <t>439722</t>
@@ -2202,7 +2202,7 @@
     <t>cefpodoxime proxetil</t>
   </si>
   <si>
-    <t>151078246</t>
+    <t>84626422</t>
   </si>
   <si>
     <t>86089</t>
@@ -2211,16 +2211,16 @@
     <t>clavulanate potassium</t>
   </si>
   <si>
-    <t>204087109</t>
-  </si>
-  <si>
-    <t>128724308</t>
-  </si>
-  <si>
-    <t>204087107</t>
-  </si>
-  <si>
-    <t>203428615</t>
+    <t>137904619</t>
+  </si>
+  <si>
+    <t>62331518</t>
+  </si>
+  <si>
+    <t>137241910</t>
+  </si>
+  <si>
+    <t>137904616</t>
   </si>
   <si>
     <t>4042515</t>
@@ -2229,16 +2229,16 @@
     <t>cephamycins</t>
   </si>
   <si>
-    <t>182778947</t>
-  </si>
-  <si>
-    <t>171871867</t>
-  </si>
-  <si>
-    <t>174381879</t>
-  </si>
-  <si>
-    <t>117963964</t>
+    <t>116556199</t>
+  </si>
+  <si>
+    <t>51744624</t>
+  </si>
+  <si>
+    <t>108200562</t>
+  </si>
+  <si>
+    <t>105678503</t>
   </si>
   <si>
     <t>574760</t>
@@ -2247,25 +2247,25 @@
     <t>clavulanic acid / ticarcillin</t>
   </si>
   <si>
-    <t>204087121</t>
+    <t>58952267</t>
+  </si>
+  <si>
+    <t>137904623</t>
   </si>
   <si>
     <t>is part of</t>
   </si>
   <si>
-    <t>125369919</t>
-  </si>
-  <si>
     <t>3806784</t>
   </si>
   <si>
     <t>aminopenicillin, nos</t>
   </si>
   <si>
-    <t>128885286</t>
-  </si>
-  <si>
-    <t>128069464</t>
+    <t>62496998</t>
+  </si>
+  <si>
+    <t>61674498</t>
   </si>
   <si>
     <t>3806409</t>
@@ -2274,7 +2274,7 @@
     <t>second generation cephalosporin, nos</t>
   </si>
   <si>
-    <t>127381834</t>
+    <t>60959633</t>
   </si>
   <si>
     <t>5316857</t>
@@ -2283,13 +2283,13 @@
     <t>beta-lactamase tem-1</t>
   </si>
   <si>
-    <t>166636141</t>
-  </si>
-  <si>
-    <t>168755093</t>
-  </si>
-  <si>
-    <t>136150072</t>
+    <t>100445342</t>
+  </si>
+  <si>
+    <t>69803580</t>
+  </si>
+  <si>
+    <t>102568185</t>
   </si>
   <si>
     <t>557166</t>
@@ -2298,13 +2298,13 @@
     <t>timentin</t>
   </si>
   <si>
-    <t>167282876</t>
-  </si>
-  <si>
-    <t>119243155</t>
-  </si>
-  <si>
-    <t>120083469</t>
+    <t>101083476</t>
+  </si>
+  <si>
+    <t>52947537</t>
+  </si>
+  <si>
+    <t>53770616</t>
   </si>
   <si>
     <t>3052081</t>
@@ -2313,7 +2313,7 @@
     <t>broad spectrum penicillins</t>
   </si>
   <si>
-    <t>163584240</t>
+    <t>97386330</t>
   </si>
   <si>
     <t>3066609</t>
@@ -2322,7 +2322,7 @@
     <t>cephalosporin 4th generation</t>
   </si>
   <si>
-    <t>176341242</t>
+    <t>110132325</t>
   </si>
   <si>
     <t>6121345</t>
@@ -2331,13 +2331,13 @@
     <t>cephamycin c</t>
   </si>
   <si>
-    <t>188722134</t>
-  </si>
-  <si>
-    <t>136581596</t>
-  </si>
-  <si>
-    <t>121424836</t>
+    <t>122578694</t>
+  </si>
+  <si>
+    <t>70211898</t>
+  </si>
+  <si>
+    <t>55001956</t>
   </si>
   <si>
     <t>469300</t>
@@ -2346,7 +2346,7 @@
     <t>cefetamet</t>
   </si>
   <si>
-    <t>161426527</t>
+    <t>95223446</t>
   </si>
   <si>
     <t>3051485</t>
@@ -2355,7 +2355,7 @@
     <t>penicillinase-resistant penicillin, nos</t>
   </si>
   <si>
-    <t>132649351</t>
+    <t>66296351</t>
   </si>
   <si>
     <t>145228</t>
@@ -2364,7 +2364,7 @@
     <t>beta-lactamase i</t>
   </si>
   <si>
-    <t>122803514</t>
+    <t>56414581</t>
   </si>
   <si>
     <t>93022</t>
@@ -2373,7 +2373,7 @@
     <t>oxacillinase</t>
   </si>
   <si>
-    <t>173861840</t>
+    <t>107672874</t>
   </si>
   <si>
     <t>5162954</t>
@@ -2382,7 +2382,7 @@
     <t>brl 42715</t>
   </si>
   <si>
-    <t>120253930</t>
+    <t>53910514</t>
   </si>
   <si>
     <t>471235</t>
@@ -2391,7 +2391,7 @@
     <t>beta-lactamase tem-2</t>
   </si>
   <si>
-    <t>138506665</t>
+    <t>72090214</t>
   </si>
   <si>
     <t>2825536</t>
@@ -2400,13 +2400,13 @@
     <t>clavam</t>
   </si>
   <si>
-    <t>192591881</t>
-  </si>
-  <si>
-    <t>163996038</t>
-  </si>
-  <si>
-    <t>165586455</t>
+    <t>126439221</t>
+  </si>
+  <si>
+    <t>99390695</t>
+  </si>
+  <si>
+    <t>97876403</t>
   </si>
   <si>
     <t>37908</t>
@@ -2415,16 +2415,16 @@
     <t>clavaminate synthase</t>
   </si>
   <si>
-    <t>165119981</t>
+    <t>122976415</t>
+  </si>
+  <si>
+    <t>98924106</t>
   </si>
   <si>
     <t>does not produce</t>
   </si>
   <si>
-    <t>189188173</t>
-  </si>
-  <si>
-    <t>127523081</t>
+    <t>61117190</t>
   </si>
   <si>
     <t>753684</t>
@@ -2433,13 +2433,13 @@
     <t>6 beta-bromopenicillanic acid</t>
   </si>
   <si>
-    <t>148232483</t>
-  </si>
-  <si>
-    <t>148232532</t>
-  </si>
-  <si>
-    <t>159574169</t>
+    <t>93384046</t>
+  </si>
+  <si>
+    <t>81769985</t>
+  </si>
+  <si>
+    <t>81770048</t>
   </si>
   <si>
     <t>2443848</t>
@@ -2448,19 +2448,19 @@
     <t>beta-lactam synthetase</t>
   </si>
   <si>
-    <t>183099069</t>
-  </si>
-  <si>
-    <t>153569246</t>
-  </si>
-  <si>
-    <t>174047272</t>
-  </si>
-  <si>
-    <t>177936126</t>
-  </si>
-  <si>
-    <t>189187761</t>
+    <t>107858840</t>
+  </si>
+  <si>
+    <t>122975987</t>
+  </si>
+  <si>
+    <t>87296809</t>
+  </si>
+  <si>
+    <t>111708177</t>
+  </si>
+  <si>
+    <t>116957029</t>
   </si>
   <si>
     <t>715646</t>
@@ -2469,7 +2469,7 @@
     <t>clavulanic acid, monosodium salt</t>
   </si>
   <si>
-    <t>204087140</t>
+    <t>137904635</t>
   </si>
   <si>
     <t>819062</t>
@@ -2478,7 +2478,7 @@
     <t>brl-14151</t>
   </si>
   <si>
-    <t>204087155</t>
+    <t>137904650</t>
   </si>
   <si>
     <t>4886694</t>
@@ -2487,7 +2487,7 @@
     <t>clavulanic acids</t>
   </si>
   <si>
-    <t>203615470</t>
+    <t>137423210</t>
   </si>
   <si>
     <t>2564956</t>
@@ -2496,7 +2496,7 @@
     <t>mm-14151</t>
   </si>
   <si>
-    <t>204087172</t>
+    <t>137904667</t>
   </si>
   <si>
     <t>74671</t>
@@ -2505,7 +2505,7 @@
     <t>beta-lactamase pse-4</t>
   </si>
   <si>
-    <t>147889428</t>
+    <t>81520972</t>
   </si>
   <si>
     <t>554462</t>
@@ -2514,13 +2514,13 @@
     <t>proclavaminate amidino hydrolase</t>
   </si>
   <si>
-    <t>135184228</t>
-  </si>
-  <si>
-    <t>171494827</t>
-  </si>
-  <si>
-    <t>135184461</t>
+    <t>68769941</t>
+  </si>
+  <si>
+    <t>68769657</t>
+  </si>
+  <si>
+    <t>105382279</t>
   </si>
   <si>
     <t>2532824</t>
@@ -2529,7 +2529,7 @@
     <t>beta-lactamase l2</t>
   </si>
   <si>
-    <t>158052883</t>
+    <t>91873202</t>
   </si>
   <si>
     <t>112866</t>
@@ -2538,7 +2538,7 @@
     <t>thiol beta-lactamase</t>
   </si>
   <si>
-    <t>130197690</t>
+    <t>66798644</t>
   </si>
   <si>
     <t>3748506</t>
@@ -2547,7 +2547,7 @@
     <t>clavaminic acid synthase</t>
   </si>
   <si>
-    <t>173246018</t>
+    <t>107135560</t>
   </si>
   <si>
     <t>3356997</t>
@@ -2556,7 +2556,7 @@
     <t>beta-lactamase ges-2</t>
   </si>
   <si>
-    <t>193353700</t>
+    <t>127202540</t>
   </si>
   <si>
     <t>3229259</t>
@@ -2565,7 +2565,7 @@
     <t>clavulanic acid 1 mg/ml</t>
   </si>
   <si>
-    <t>204087186</t>
+    <t>137904683</t>
   </si>
   <si>
     <t>is ingredient of</t>
@@ -2577,7 +2577,7 @@
     <t>beta-lactamase tem-43</t>
   </si>
   <si>
-    <t>172528031</t>
+    <t>106336766</t>
   </si>
   <si>
     <t>2679389</t>
@@ -2586,7 +2586,7 @@
     <t>clavulanic acid 2 mg/ml</t>
   </si>
   <si>
-    <t>204087207</t>
+    <t>137904706</t>
   </si>
   <si>
     <t>2402099</t>
@@ -2595,7 +2595,7 @@
     <t>clavulanic acid dehydrogenase</t>
   </si>
   <si>
-    <t>184379640</t>
+    <t>118181646</t>
   </si>
   <si>
     <t>1838873</t>
@@ -2604,7 +2604,7 @@
     <t>clavulanic acid / ticarcillin injectable product</t>
   </si>
   <si>
-    <t>204087224</t>
+    <t>137904725</t>
   </si>
   <si>
     <t>1485620</t>
@@ -2613,7 +2613,7 @@
     <t>clavulanic acid / ticarcillin injectable solution</t>
   </si>
   <si>
-    <t>204087216</t>
+    <t>137904712</t>
   </si>
   <si>
     <t>113661</t>
@@ -2622,10 +2622,10 @@
     <t>ch 1240</t>
   </si>
   <si>
-    <t>178969536</t>
-  </si>
-  <si>
-    <t>178969598</t>
+    <t>112794012</t>
+  </si>
+  <si>
+    <t>112793949</t>
   </si>
   <si>
     <t>3216761</t>
@@ -2634,7 +2634,7 @@
     <t>clavulanic acid injectable solution</t>
   </si>
   <si>
-    <t>204087201</t>
+    <t>137904693</t>
   </si>
   <si>
     <t>1835567</t>
@@ -2643,7 +2643,7 @@
     <t>clavulanic acid injectable product</t>
   </si>
   <si>
-    <t>204087238</t>
+    <t>137904739</t>
   </si>
   <si>
     <t>150743</t>
@@ -2655,7 +2655,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>125911780</t>
+    <t>59573405</t>
   </si>
   <si>
     <t>disrupts</t>
@@ -2667,25 +2667,25 @@
     <t>cells</t>
   </si>
   <si>
-    <t>186440109</t>
+    <t>84186246</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>120243535</t>
   </si>
   <si>
     <t>augments</t>
   </si>
   <si>
-    <t>150633574</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
     <t>719023</t>
   </si>
   <si>
     <t>lung</t>
   </si>
   <si>
-    <t>196993881</t>
+    <t>130776665</t>
   </si>
   <si>
     <t>708069</t>
@@ -2694,7 +2694,7 @@
     <t>macrophage</t>
   </si>
   <si>
-    <t>166026827</t>
+    <t>99913004</t>
   </si>
   <si>
     <t>613023</t>
@@ -2703,7 +2703,7 @@
     <t>body tissue</t>
   </si>
   <si>
-    <t>166028900</t>
+    <t>99838488</t>
   </si>
   <si>
     <t>4814741</t>
@@ -2712,7 +2712,7 @@
     <t>adipose tissue</t>
   </si>
   <si>
-    <t>166029076</t>
+    <t>99838664</t>
   </si>
   <si>
     <t>836328</t>
@@ -2721,7 +2721,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>127465694</t>
+    <t>61070462</t>
   </si>
   <si>
     <t>632842</t>
@@ -2730,7 +2730,7 @@
     <t>neutrophil</t>
   </si>
   <si>
-    <t>145311211</t>
+    <t>80911529</t>
   </si>
   <si>
     <t>3176707</t>
@@ -2739,7 +2739,7 @@
     <t>column (anatomic)</t>
   </si>
   <si>
-    <t>176954555</t>
+    <t>110747420</t>
   </si>
   <si>
     <t>3746715</t>
@@ -2748,7 +2748,7 @@
     <t>rod photoreceptors</t>
   </si>
   <si>
-    <t>120506976</t>
+    <t>54141974</t>
   </si>
   <si>
     <t>affects</t>
@@ -2760,7 +2760,7 @@
     <t>blood arterial</t>
   </si>
   <si>
-    <t>178699044</t>
+    <t>112573427</t>
   </si>
   <si>
     <t>2964460</t>
@@ -2769,7 +2769,7 @@
     <t>ge01 cell line</t>
   </si>
   <si>
-    <t>157252838</t>
+    <t>91060921</t>
   </si>
   <si>
     <t>3780704</t>
@@ -2778,7 +2778,7 @@
     <t>mucous membrane of bronchus</t>
   </si>
   <si>
-    <t>161189039</t>
+    <t>94997354</t>
   </si>
   <si>
     <t>3809937</t>
@@ -2787,7 +2787,7 @@
     <t>colony-forming unit of granulocytic lineage (cell)</t>
   </si>
   <si>
-    <t>196994233</t>
+    <t>130777002</t>
   </si>
   <si>
     <t>2388559</t>
@@ -2796,7 +2796,7 @@
     <t>bronchial biopsy sample</t>
   </si>
   <si>
-    <t>161188851</t>
+    <t>94997235</t>
   </si>
   <si>
     <t>111084</t>
@@ -2808,19 +2808,19 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>180892648</t>
-  </si>
-  <si>
-    <t>163018855</t>
-  </si>
-  <si>
-    <t>157637091</t>
-  </si>
-  <si>
-    <t>176984953</t>
-  </si>
-  <si>
-    <t>134615895</t>
+    <t>110793338</t>
+  </si>
+  <si>
+    <t>114720225</t>
+  </si>
+  <si>
+    <t>91450270</t>
+  </si>
+  <si>
+    <t>96814089</t>
+  </si>
+  <si>
+    <t>68200347</t>
   </si>
   <si>
     <t>5285062</t>
@@ -2829,7 +2829,7 @@
     <t>dna sequence</t>
   </si>
   <si>
-    <t>129044620</t>
+    <t>62648181</t>
   </si>
   <si>
     <t>2791782</t>
@@ -2838,7 +2838,7 @@
     <t>sod1 (homo sapiens)</t>
   </si>
   <si>
-    <t>179827499</t>
+    <t>113602403</t>
   </si>
   <si>
     <t>1909203</t>
@@ -2847,7 +2847,7 @@
     <t>acaca (homo sapiens)</t>
   </si>
   <si>
-    <t>186024585</t>
+    <t>119816583</t>
   </si>
   <si>
     <t>1659671</t>
@@ -2856,7 +2856,7 @@
     <t>muc7 (homo sapiens)</t>
   </si>
   <si>
-    <t>183098893</t>
+    <t>116956896</t>
   </si>
   <si>
     <t>2467957</t>
@@ -2865,7 +2865,7 @@
     <t>ros1 (homo sapiens)</t>
   </si>
   <si>
-    <t>185969154</t>
+    <t>119828152</t>
   </si>
   <si>
     <t>4047566</t>
@@ -2874,10 +2874,10 @@
     <t>genes, regulator</t>
   </si>
   <si>
-    <t>190508837</t>
-  </si>
-  <si>
-    <t>171872064</t>
+    <t>105678698</t>
+  </si>
+  <si>
+    <t>124297052</t>
   </si>
   <si>
     <t>211084</t>
@@ -2886,13 +2886,13 @@
     <t>open reading frames</t>
   </si>
   <si>
-    <t>182003358</t>
-  </si>
-  <si>
-    <t>143189658</t>
-  </si>
-  <si>
-    <t>143189594</t>
+    <t>76824118</t>
+  </si>
+  <si>
+    <t>115795143</t>
+  </si>
+  <si>
+    <t>76824189</t>
   </si>
   <si>
     <t>4028363</t>
@@ -2901,10 +2901,10 @@
     <t>operon</t>
   </si>
   <si>
-    <t>126072590</t>
-  </si>
-  <si>
-    <t>139486917</t>
+    <t>73078634</t>
+  </si>
+  <si>
+    <t>59639630</t>
   </si>
   <si>
     <t>2790719</t>
@@ -2913,7 +2913,7 @@
     <t>med1 (homo sapiens)</t>
   </si>
   <si>
-    <t>137243036</t>
+    <t>73345585</t>
   </si>
   <si>
     <t>2791421</t>
@@ -2922,7 +2922,7 @@
     <t>pgf (homo sapiens)</t>
   </si>
   <si>
-    <t>155121198</t>
+    <t>88896486</t>
   </si>
   <si>
     <t>1779668</t>
@@ -2931,7 +2931,7 @@
     <t>cd69 (homo sapiens)</t>
   </si>
   <si>
-    <t>161321015</t>
+    <t>95087223</t>
   </si>
   <si>
     <t>4034243</t>
@@ -2940,10 +2940,10 @@
     <t>structural gene, nos</t>
   </si>
   <si>
-    <t>189186008</t>
-  </si>
-  <si>
-    <t>135892976</t>
+    <t>69540354</t>
+  </si>
+  <si>
+    <t>122974442</t>
   </si>
   <si>
     <t>2791363</t>
@@ -2952,10 +2952,10 @@
     <t>apeh (homo sapiens)</t>
   </si>
   <si>
-    <t>171368736</t>
-  </si>
-  <si>
-    <t>186024600</t>
+    <t>119816598</t>
+  </si>
+  <si>
+    <t>105254776</t>
   </si>
   <si>
     <t>2827154</t>
@@ -2964,7 +2964,7 @@
     <t>selplg (homo sapiens)</t>
   </si>
   <si>
-    <t>157636798</t>
+    <t>91449736</t>
   </si>
   <si>
     <t>1803915</t>
@@ -2973,7 +2973,7 @@
     <t>cars (homo sapiens)</t>
   </si>
   <si>
-    <t>171871907</t>
+    <t>105678526</t>
   </si>
   <si>
     <t>2792472</t>
@@ -2982,10 +2982,10 @@
     <t>bcar1 (homo sapiens)</t>
   </si>
   <si>
-    <t>131970389</t>
-  </si>
-  <si>
-    <t>163961948</t>
+    <t>97763432</t>
+  </si>
+  <si>
+    <t>65613731</t>
   </si>
   <si>
     <t>2790737</t>
@@ -2994,7 +2994,7 @@
     <t>tyrp1 (homo sapiens)</t>
   </si>
   <si>
-    <t>126072766</t>
+    <t>59639939</t>
   </si>
   <si>
     <t>1655622</t>
@@ -3003,7 +3003,7 @@
     <t>rab4a (homo sapiens)</t>
   </si>
   <si>
-    <t>150638340</t>
+    <t>84191096</t>
   </si>
   <si>
     <t>2939382</t>
@@ -3012,7 +3012,7 @@
     <t>lactb (homo sapiens)</t>
   </si>
   <si>
-    <t>133273111</t>
+    <t>66877616</t>
   </si>
   <si>
     <t>2830712</t>
@@ -3021,13 +3021,22 @@
     <t>slc22a7 (homo sapiens)</t>
   </si>
   <si>
-    <t>190670247</t>
-  </si>
-  <si>
-    <t>190670160</t>
-  </si>
-  <si>
-    <t>190670136</t>
+    <t>124458501</t>
+  </si>
+  <si>
+    <t>124458586</t>
+  </si>
+  <si>
+    <t>124458465</t>
+  </si>
+  <si>
+    <t>2829983</t>
+  </si>
+  <si>
+    <t>rpgr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>119816548</t>
   </si>
   <si>
     <t>4034404</t>
@@ -3036,7 +3045,7 @@
     <t>gene clusters</t>
   </si>
   <si>
-    <t>196919032</t>
+    <t>130701026</t>
   </si>
   <si>
     <t>2792449</t>
@@ -3045,16 +3054,16 @@
     <t>sectm1 (homo sapiens)</t>
   </si>
   <si>
-    <t>149756065</t>
-  </si>
-  <si>
-    <t>2829983</t>
-  </si>
-  <si>
-    <t>rpgr (homo sapiens)</t>
-  </si>
-  <si>
-    <t>186024563</t>
+    <t>83378385</t>
+  </si>
+  <si>
+    <t>2827109</t>
+  </si>
+  <si>
+    <t>sco1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>129830849</t>
   </si>
   <si>
     <t>2829796</t>
@@ -3063,16 +3072,7 @@
     <t>stx8 (homo sapiens)</t>
   </si>
   <si>
-    <t>127504707</t>
-  </si>
-  <si>
-    <t>2827109</t>
-  </si>
-  <si>
-    <t>sco1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>195986320</t>
+    <t>61111071</t>
   </si>
   <si>
     <t>3000125</t>
@@ -3081,7 +3081,7 @@
     <t>pkd1p2 (homo sapiens)</t>
   </si>
   <si>
-    <t>122420000</t>
+    <t>56036144</t>
   </si>
   <si>
     <t>2963535</t>
@@ -3090,7 +3090,7 @@
     <t>brd1 (homo sapiens)</t>
   </si>
   <si>
-    <t>131978901</t>
+    <t>65588774</t>
   </si>
   <si>
     <t>3021823</t>
@@ -3099,7 +3099,7 @@
     <t>rnf123 (homo sapiens)</t>
   </si>
   <si>
-    <t>163138680</t>
+    <t>96946785</t>
   </si>
   <si>
     <t>837405</t>
@@ -3111,7 +3111,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>128741463</t>
+    <t>62346647</t>
   </si>
   <si>
     <t>treats</t>
@@ -3123,10 +3123,10 @@
     <t>communicable diseases</t>
   </si>
   <si>
-    <t>150115990</t>
-  </si>
-  <si>
-    <t>121005355</t>
+    <t>85617964</t>
+  </si>
+  <si>
+    <t>54665620</t>
   </si>
   <si>
     <t>45119</t>
@@ -3135,7 +3135,7 @@
     <t>inflammation</t>
   </si>
   <si>
-    <t>133663599</t>
+    <t>67273178</t>
   </si>
   <si>
     <t>2940375</t>
@@ -3144,7 +3144,7 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>181595342</t>
+    <t>115388118</t>
   </si>
   <si>
     <t>does not treat</t>
@@ -3156,7 +3156,7 @@
     <t>traumatic injury</t>
   </si>
   <si>
-    <t>138872257</t>
+    <t>72393376</t>
   </si>
   <si>
     <t>predisposes</t>
@@ -3168,22 +3168,22 @@
     <t>seizures</t>
   </si>
   <si>
-    <t>158099757</t>
+    <t>91975969</t>
+  </si>
+  <si>
+    <t>91975782</t>
   </si>
   <si>
     <t>does not affect</t>
   </si>
   <si>
-    <t>158099950</t>
-  </si>
-  <si>
     <t>2967038</t>
   </si>
   <si>
     <t>hypersensitivity</t>
   </si>
   <si>
-    <t>154739245</t>
+    <t>88469753</t>
   </si>
   <si>
     <t>causes</t>
@@ -3195,7 +3195,7 @@
     <t>contraction (finding)</t>
   </si>
   <si>
-    <t>189115925</t>
+    <t>122924625</t>
   </si>
   <si>
     <t>2506281</t>
@@ -3204,7 +3204,7 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>123753601</t>
+    <t>57370986</t>
   </si>
   <si>
     <t>3779305</t>
@@ -3213,7 +3213,7 @@
     <t>consumption-archaic term for tb</t>
   </si>
   <si>
-    <t>139854781</t>
+    <t>73459147</t>
   </si>
   <si>
     <t>prevents</t>
@@ -3225,13 +3225,13 @@
     <t>pneumonia</t>
   </si>
   <si>
-    <t>119649748</t>
-  </si>
-  <si>
-    <t>179033355</t>
-  </si>
-  <si>
-    <t>119760949</t>
+    <t>112859086</t>
+  </si>
+  <si>
+    <t>53444330</t>
+  </si>
+  <si>
+    <t>53342946</t>
   </si>
   <si>
     <t>2822765</t>
@@ -3240,10 +3240,10 @@
     <t>kidney failure</t>
   </si>
   <si>
-    <t>136564765</t>
-  </si>
-  <si>
-    <t>119391338</t>
+    <t>70242382</t>
+  </si>
+  <si>
+    <t>56903123</t>
   </si>
   <si>
     <t>4028517</t>
@@ -3252,7 +3252,7 @@
     <t>kidney failure, chronic</t>
   </si>
   <si>
-    <t>142019931</t>
+    <t>77834644</t>
   </si>
   <si>
     <t>4035332</t>
@@ -3261,7 +3261,7 @@
     <t>fever</t>
   </si>
   <si>
-    <t>164586346</t>
+    <t>98390674</t>
   </si>
   <si>
     <t>356203</t>
@@ -3270,7 +3270,7 @@
     <t>asthenia</t>
   </si>
   <si>
-    <t>168672611</t>
+    <t>102460167</t>
   </si>
   <si>
     <t>4035345</t>
@@ -3279,7 +3279,7 @@
     <t>exanthema</t>
   </si>
   <si>
-    <t>80508835</t>
+    <t>14299996</t>
   </si>
   <si>
     <t>indicates</t>
@@ -3291,7 +3291,7 @@
     <t>diastasis</t>
   </si>
   <si>
-    <t>119887814</t>
+    <t>53563346</t>
   </si>
   <si>
     <t>527091</t>
@@ -3300,7 +3300,7 @@
     <t>liver diseases</t>
   </si>
   <si>
-    <t>126984666</t>
+    <t>60496323</t>
   </si>
   <si>
     <t>425414</t>
@@ -3309,7 +3309,7 @@
     <t>tuberculosis</t>
   </si>
   <si>
-    <t>159860029</t>
+    <t>93568490</t>
   </si>
   <si>
     <t>617264</t>
@@ -3318,7 +3318,7 @@
     <t>diarrhea</t>
   </si>
   <si>
-    <t>132357834</t>
+    <t>65966706</t>
   </si>
   <si>
     <t>2449470</t>
@@ -3327,13 +3327,13 @@
     <t>mutant</t>
   </si>
   <si>
-    <t>134615694</t>
-  </si>
-  <si>
-    <t>142294754</t>
-  </si>
-  <si>
-    <t>136582363</t>
+    <t>70212637</t>
+  </si>
+  <si>
+    <t>75858725</t>
+  </si>
+  <si>
+    <t>68200205</t>
   </si>
   <si>
     <t>536761</t>
@@ -3342,10 +3342,10 @@
     <t>hepatitis, toxic</t>
   </si>
   <si>
-    <t>80508760</t>
-  </si>
-  <si>
-    <t>169068230</t>
+    <t>14299949</t>
+  </si>
+  <si>
+    <t>102857496</t>
   </si>
   <si>
     <t>790153</t>
@@ -3354,7 +3354,7 @@
     <t>hepatitis, drug-induced</t>
   </si>
   <si>
-    <t>80508762</t>
+    <t>14299953</t>
   </si>
   <si>
     <t>636875</t>
@@ -3363,7 +3363,7 @@
     <t>drug-induced liver injury</t>
   </si>
   <si>
-    <t>80508756</t>
+    <t>14299947</t>
   </si>
   <si>
     <t>1937679</t>
@@ -3372,7 +3372,7 @@
     <t>drug-induced acute liver injury</t>
   </si>
   <si>
-    <t>80508758</t>
+    <t>14299951</t>
   </si>
   <si>
     <t>4042181</t>
@@ -3381,10 +3381,10 @@
     <t>bacterial infections</t>
   </si>
   <si>
-    <t>171956369</t>
-  </si>
-  <si>
-    <t>128746132</t>
+    <t>105736576</t>
+  </si>
+  <si>
+    <t>62351694</t>
   </si>
   <si>
     <t>4035190</t>
@@ -3393,7 +3393,16 @@
     <t>cystic fibrosis</t>
   </si>
   <si>
-    <t>121700513</t>
+    <t>55319428</t>
+  </si>
+  <si>
+    <t>4042438</t>
+  </si>
+  <si>
+    <t>cholestasis</t>
+  </si>
+  <si>
+    <t>14299913</t>
   </si>
   <si>
     <t>3760890</t>
@@ -3402,16 +3411,7 @@
     <t>sepsis</t>
   </si>
   <si>
-    <t>123469162</t>
-  </si>
-  <si>
-    <t>4042438</t>
-  </si>
-  <si>
-    <t>cholestasis</t>
-  </si>
-  <si>
-    <t>80508714</t>
+    <t>57041073</t>
   </si>
   <si>
     <t>3093650</t>
@@ -3420,7 +3420,7 @@
     <t>carrier of disorder</t>
   </si>
   <si>
-    <t>173237368</t>
+    <t>107025477</t>
   </si>
   <si>
     <t>4027389</t>
@@ -3429,7 +3429,7 @@
     <t>meningitis</t>
   </si>
   <si>
-    <t>128374766</t>
+    <t>65107171</t>
   </si>
   <si>
     <t>699760</t>
@@ -3438,7 +3438,7 @@
     <t>respiration disorders</t>
   </si>
   <si>
-    <t>131224857</t>
+    <t>67726926</t>
   </si>
   <si>
     <t>4048118</t>
@@ -3447,7 +3447,16 @@
     <t>icterus</t>
   </si>
   <si>
-    <t>148234491</t>
+    <t>81772201</t>
+  </si>
+  <si>
+    <t>5284875</t>
+  </si>
+  <si>
+    <t>respiratory tract infections</t>
+  </si>
+  <si>
+    <t>64746259</t>
   </si>
   <si>
     <t>2724912</t>
@@ -3456,7 +3465,7 @@
     <t>major depressive disorder</t>
   </si>
   <si>
-    <t>150635126</t>
+    <t>84187577</t>
   </si>
   <si>
     <t>3739262</t>
@@ -3465,7 +3474,7 @@
     <t>absence of sensation</t>
   </si>
   <si>
-    <t>199710211</t>
+    <t>133517963</t>
   </si>
   <si>
     <t>353177</t>
@@ -3474,16 +3483,7 @@
     <t>urinary tract infection</t>
   </si>
   <si>
-    <t>118713359</t>
-  </si>
-  <si>
-    <t>5284875</t>
-  </si>
-  <si>
-    <t>respiratory tract infections</t>
-  </si>
-  <si>
-    <t>131123626</t>
+    <t>52474141</t>
   </si>
   <si>
     <t>4027733</t>
@@ -3492,7 +3492,7 @@
     <t>osteomyelitis</t>
   </si>
   <si>
-    <t>190322460</t>
+    <t>124109774</t>
   </si>
   <si>
     <t>4041038</t>
@@ -3501,7 +3501,7 @@
     <t>drug allergy</t>
   </si>
   <si>
-    <t>80508726</t>
+    <t>14299923</t>
   </si>
   <si>
     <t>830848</t>
@@ -3510,7 +3510,7 @@
     <t>angioedema</t>
   </si>
   <si>
-    <t>80508695</t>
+    <t>14299895</t>
   </si>
   <si>
     <t>4027989</t>
@@ -3519,10 +3519,10 @@
     <t>periodontal diseases</t>
   </si>
   <si>
-    <t>197182416</t>
-  </si>
-  <si>
-    <t>164400890</t>
+    <t>98199727</t>
+  </si>
+  <si>
+    <t>131018125</t>
   </si>
   <si>
     <t>775268</t>
@@ -3531,7 +3531,7 @@
     <t>duodenal ulcer</t>
   </si>
   <si>
-    <t>179506576</t>
+    <t>113336814</t>
   </si>
   <si>
     <t>808688</t>
@@ -3540,7 +3540,7 @@
     <t>candidiasis</t>
   </si>
   <si>
-    <t>154319822</t>
+    <t>88127755</t>
   </si>
   <si>
     <t>733150</t>
@@ -3549,7 +3549,7 @@
     <t>bacterial endocarditis</t>
   </si>
   <si>
-    <t>128813187</t>
+    <t>62404246</t>
   </si>
   <si>
     <t>4049107</t>
@@ -3558,7 +3558,7 @@
     <t>jaundice, obstructive</t>
   </si>
   <si>
-    <t>137701025</t>
+    <t>71216373</t>
   </si>
   <si>
     <t>2977137</t>
@@ -3567,7 +3567,7 @@
     <t>drug dependence</t>
   </si>
   <si>
-    <t>164586900</t>
+    <t>98391241</t>
   </si>
   <si>
     <t>3086893</t>
@@ -3576,7 +3576,7 @@
     <t>adverse reactions</t>
   </si>
   <si>
-    <t>152211167</t>
+    <t>87736796</t>
   </si>
   <si>
     <t>2517336</t>
@@ -3585,7 +3585,16 @@
     <t>lung infection</t>
   </si>
   <si>
-    <t>120704873</t>
+    <t>54334423</t>
+  </si>
+  <si>
+    <t>629842</t>
+  </si>
+  <si>
+    <t>bronchitis, chronic</t>
+  </si>
+  <si>
+    <t>78391063</t>
   </si>
   <si>
     <t>3061756</t>
@@ -3594,16 +3603,7 @@
     <t>mrsa - methicillin resistant staphylococcus aureus infection</t>
   </si>
   <si>
-    <t>129720135</t>
-  </si>
-  <si>
-    <t>629842</t>
-  </si>
-  <si>
-    <t>bronchitis, chronic</t>
-  </si>
-  <si>
-    <t>144873458</t>
+    <t>63236900</t>
   </si>
   <si>
     <t>359749</t>
@@ -3612,7 +3612,7 @@
     <t>suicide</t>
   </si>
   <si>
-    <t>132682832</t>
+    <t>66293630</t>
   </si>
   <si>
     <t>456715</t>
@@ -3621,7 +3621,7 @@
     <t>staphylococcal infections</t>
   </si>
   <si>
-    <t>146720583</t>
+    <t>80343251</t>
   </si>
   <si>
     <t>3765069</t>
@@ -3630,7 +3630,7 @@
     <t>infections, hospital</t>
   </si>
   <si>
-    <t>134616877</t>
+    <t>68299242</t>
   </si>
   <si>
     <t>555833</t>
@@ -3639,7 +3639,7 @@
     <t>coinfection</t>
   </si>
   <si>
-    <t>121005307</t>
+    <t>54665480</t>
   </si>
   <si>
     <t>4034942</t>
@@ -3648,7 +3648,7 @@
     <t>gonorrhea</t>
   </si>
   <si>
-    <t>123753118</t>
+    <t>57370454</t>
   </si>
   <si>
     <t>4028021</t>
@@ -3657,7 +3657,7 @@
     <t>mastitis</t>
   </si>
   <si>
-    <t>195676594</t>
+    <t>129491160</t>
   </si>
   <si>
     <t>3371255</t>
@@ -3666,7 +3666,7 @@
     <t>congestion, nos</t>
   </si>
   <si>
-    <t>175927335</t>
+    <t>109747699</t>
   </si>
   <si>
     <t>382670</t>
@@ -3675,7 +3675,7 @@
     <t>chlamydia infections</t>
   </si>
   <si>
-    <t>171136497</t>
+    <t>104933474</t>
   </si>
   <si>
     <t>3738405</t>
@@ -3684,7 +3684,7 @@
     <t>recurrent urinary tract infection</t>
   </si>
   <si>
-    <t>130823698</t>
+    <t>64437464</t>
   </si>
   <si>
     <t>726386</t>
@@ -3693,7 +3693,7 @@
     <t>appendicitis</t>
   </si>
   <si>
-    <t>158196278</t>
+    <t>92026551</t>
   </si>
   <si>
     <t>4783017</t>
@@ -3702,7 +3702,7 @@
     <t>otitis media with effusion</t>
   </si>
   <si>
-    <t>175109377</t>
+    <t>108930768</t>
   </si>
   <si>
     <t>6120535</t>
@@ -3711,7 +3711,7 @@
     <t>lower respiratory tract infection</t>
   </si>
   <si>
-    <t>121039712</t>
+    <t>54660158</t>
   </si>
   <si>
     <t>5796856</t>
@@ -3720,7 +3720,7 @@
     <t>acute appendicitis nos (disorder)</t>
   </si>
   <si>
-    <t>157607173</t>
+    <t>91380538</t>
   </si>
   <si>
     <t>3206771</t>
@@ -3729,7 +3729,7 @@
     <t>vegetation</t>
   </si>
   <si>
-    <t>119430651</t>
+    <t>56937471</t>
   </si>
   <si>
     <t>473375</t>
@@ -3738,7 +3738,7 @@
     <t>pharyngitis</t>
   </si>
   <si>
-    <t>163230251</t>
+    <t>97024665</t>
   </si>
   <si>
     <t>3751082</t>
@@ -3747,7 +3747,7 @@
     <t>acute otitis media, nos</t>
   </si>
   <si>
-    <t>139575627</t>
+    <t>73090777</t>
   </si>
   <si>
     <t>465777</t>
@@ -3756,7 +3756,7 @@
     <t>tonsillitis</t>
   </si>
   <si>
-    <t>197818382</t>
+    <t>131617270</t>
   </si>
   <si>
     <t>3741226</t>
@@ -3765,7 +3765,7 @@
     <t>chronic otitis media, nos</t>
   </si>
   <si>
-    <t>155359758</t>
+    <t>89167245</t>
   </si>
   <si>
     <t>5098729</t>
@@ -3774,7 +3774,7 @@
     <t>ear inflammation</t>
   </si>
   <si>
-    <t>154070746</t>
+    <t>87864261</t>
   </si>
   <si>
     <t>2966437</t>
@@ -3783,7 +3783,7 @@
     <t>evaluable disease</t>
   </si>
   <si>
-    <t>128727143</t>
+    <t>62333543</t>
   </si>
   <si>
     <t>3103805</t>
@@ -3792,7 +3792,7 @@
     <t>acute pyelonephritis</t>
   </si>
   <si>
-    <t>128748123</t>
+    <t>62353423</t>
   </si>
   <si>
     <t>5699343</t>
@@ -3801,7 +3801,7 @@
     <t>pyoderma</t>
   </si>
   <si>
-    <t>149828740</t>
+    <t>83409719</t>
   </si>
   <si>
     <t>3754603</t>
@@ -3810,7 +3810,7 @@
     <t>chronic periodontitis</t>
   </si>
   <si>
-    <t>138487695</t>
+    <t>72144400</t>
   </si>
   <si>
     <t>3760698</t>
@@ -3819,7 +3819,7 @@
     <t>abdominal abscess</t>
   </si>
   <si>
-    <t>135279418</t>
+    <t>68960940</t>
   </si>
   <si>
     <t>3741381</t>
@@ -3828,7 +3828,7 @@
     <t>primary bacterial peritonitis</t>
   </si>
   <si>
-    <t>128449047</t>
+    <t>61995710</t>
   </si>
   <si>
     <t>283242</t>
@@ -3837,7 +3837,7 @@
     <t>periodontal pocket</t>
   </si>
   <si>
-    <t>148329867</t>
+    <t>81861506</t>
   </si>
   <si>
     <t>2514344</t>
@@ -3846,7 +3846,7 @@
     <t>ruptured appendicitis</t>
   </si>
   <si>
-    <t>158196227</t>
+    <t>92026490</t>
   </si>
   <si>
     <t>3761765</t>
@@ -3855,7 +3855,7 @@
     <t>subcutaneous abscess</t>
   </si>
   <si>
-    <t>121003589</t>
+    <t>54663849</t>
   </si>
   <si>
     <t>419756</t>
@@ -3864,7 +3864,7 @@
     <t>pasteurella infections</t>
   </si>
   <si>
-    <t>131009784</t>
+    <t>64570457</t>
   </si>
   <si>
     <t>6116946</t>
@@ -3873,7 +3873,7 @@
     <t>cholestatic hepatitis</t>
   </si>
   <si>
-    <t>131374744</t>
+    <t>64966711</t>
   </si>
   <si>
     <t>527559</t>
@@ -3882,7 +3882,7 @@
     <t>chancroids</t>
   </si>
   <si>
-    <t>126308514</t>
+    <t>59915599</t>
   </si>
   <si>
     <t>633953</t>
@@ -3891,7 +3891,7 @@
     <t>pelvic infection</t>
   </si>
   <si>
-    <t>128729899</t>
+    <t>62335821</t>
   </si>
   <si>
     <t>444790</t>
@@ -3900,7 +3900,7 @@
     <t>actinomycetoma</t>
   </si>
   <si>
-    <t>138312948</t>
+    <t>71923397</t>
   </si>
   <si>
     <t>2526737</t>
@@ -3909,7 +3909,7 @@
     <t>antibiotic resistant strain</t>
   </si>
   <si>
-    <t>128740687</t>
+    <t>62345920</t>
   </si>
   <si>
     <t>593866</t>
@@ -3918,7 +3918,7 @@
     <t>endomyometritis</t>
   </si>
   <si>
-    <t>128732665</t>
+    <t>62338175</t>
   </si>
   <si>
     <t>3355568</t>
@@ -3927,7 +3927,7 @@
     <t>bronchopneumopathy</t>
   </si>
   <si>
-    <t>144008597</t>
+    <t>79711654</t>
   </si>
   <si>
     <t>613914</t>
@@ -3936,7 +3936,7 @@
     <t>alveolar periostitis</t>
   </si>
   <si>
-    <t>189798282</t>
+    <t>123659398</t>
   </si>
   <si>
     <t>4048722</t>
@@ -3945,7 +3945,7 @@
     <t>gonococcal urethritis</t>
   </si>
   <si>
-    <t>131452595</t>
+    <t>65059801</t>
   </si>
   <si>
     <t>2436819</t>
@@ -3954,7 +3954,22 @@
     <t>ascites fluid infection</t>
   </si>
   <si>
-    <t>128449614</t>
+    <t>61996312</t>
+  </si>
+  <si>
+    <t>3815727</t>
+  </si>
+  <si>
+    <t>transcription, genetic</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>70214396</t>
+  </si>
+  <si>
+    <t>103017487</t>
   </si>
   <si>
     <t>84764</t>
@@ -3963,13 +3978,10 @@
     <t>growth</t>
   </si>
   <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>118339988</t>
-  </si>
-  <si>
-    <t>131415535</t>
+    <t>55947996</t>
+  </si>
+  <si>
+    <t>67889168</t>
   </si>
   <si>
     <t>4747186</t>
@@ -3978,19 +3990,7 @@
     <t>apoptosis</t>
   </si>
   <si>
-    <t>185972295</t>
-  </si>
-  <si>
-    <t>3815727</t>
-  </si>
-  <si>
-    <t>transcription, genetic</t>
-  </si>
-  <si>
-    <t>169232978</t>
-  </si>
-  <si>
-    <t>136583529</t>
+    <t>119830960</t>
   </si>
   <si>
     <t>3760662</t>
@@ -3999,16 +3999,16 @@
     <t>enzyme activity</t>
   </si>
   <si>
-    <t>125545569</t>
-  </si>
-  <si>
-    <t>124589646</t>
+    <t>58183777</t>
   </si>
   <si>
     <t>does not disrupt</t>
   </si>
   <si>
-    <t>127341995</t>
+    <t>60957592</t>
+  </si>
+  <si>
+    <t>59168738</t>
   </si>
   <si>
     <t>3789308</t>
@@ -4017,7 +4017,7 @@
     <t>immune response</t>
   </si>
   <si>
-    <t>140389872</t>
+    <t>73918701</t>
   </si>
   <si>
     <t>4028465</t>
@@ -4026,7 +4026,7 @@
     <t>phagocytosis</t>
   </si>
   <si>
-    <t>146043021</t>
+    <t>79589457</t>
   </si>
   <si>
     <t>4027349</t>
@@ -4035,7 +4035,7 @@
     <t>membrane potentials</t>
   </si>
   <si>
-    <t>185969326</t>
+    <t>119828335</t>
   </si>
   <si>
     <t>4758392</t>
@@ -4044,7 +4044,7 @@
     <t>mental concentration</t>
   </si>
   <si>
-    <t>128811767</t>
+    <t>62416268</t>
   </si>
   <si>
     <t>2450100</t>
@@ -4053,7 +4053,7 @@
     <t>synergism</t>
   </si>
   <si>
-    <t>125437546</t>
+    <t>59076945</t>
   </si>
   <si>
     <t>4752124</t>
@@ -4062,7 +4062,7 @@
     <t>anxiety</t>
   </si>
   <si>
-    <t>150635357</t>
+    <t>84187794</t>
   </si>
   <si>
     <t>3097391</t>
@@ -4071,7 +4071,7 @@
     <t>bactericidal activity</t>
   </si>
   <si>
-    <t>159774704</t>
+    <t>93593886</t>
   </si>
   <si>
     <t>3109273</t>
@@ -4080,7 +4080,7 @@
     <t>muscle strength</t>
   </si>
   <si>
-    <t>158100503</t>
+    <t>91976609</t>
   </si>
   <si>
     <t>2390633</t>
@@ -4089,7 +4089,7 @@
     <t>neuroprotection</t>
   </si>
   <si>
-    <t>185969234</t>
+    <t>119828228</t>
   </si>
   <si>
     <t>2449781</t>
@@ -4098,7 +4098,7 @@
     <t>reuptake</t>
   </si>
   <si>
-    <t>195273109</t>
+    <t>129088467</t>
   </si>
   <si>
     <t>3378280</t>
@@ -4107,7 +4107,7 @@
     <t>motor performance</t>
   </si>
   <si>
-    <t>158100479</t>
+    <t>91976542</t>
   </si>
   <si>
     <t>3255548</t>
@@ -4116,7 +4116,7 @@
     <t>signal peptide peptidase activity</t>
   </si>
   <si>
-    <t>170029446</t>
+    <t>103923853</t>
   </si>
   <si>
     <t>3815189</t>
@@ -4125,7 +4125,7 @@
     <t>rewards</t>
   </si>
   <si>
-    <t>164586313</t>
+    <t>98390653</t>
   </si>
   <si>
     <t>3814436</t>
@@ -4134,7 +4134,7 @@
     <t>penile erection</t>
   </si>
   <si>
-    <t>195942262</t>
+    <t>129737233</t>
   </si>
   <si>
     <t>2476412</t>
@@ -4143,7 +4143,7 @@
     <t>place preference learning</t>
   </si>
   <si>
-    <t>164586693</t>
+    <t>98391049</t>
   </si>
   <si>
     <t>3002489</t>
@@ -4152,19 +4152,19 @@
     <t>beta lactamase inhibitors [moa]</t>
   </si>
   <si>
-    <t>123840120</t>
-  </si>
-  <si>
-    <t>148770203</t>
-  </si>
-  <si>
-    <t>127595239</t>
-  </si>
-  <si>
-    <t>129027358</t>
-  </si>
-  <si>
-    <t>125893498</t>
+    <t>62541980</t>
+  </si>
+  <si>
+    <t>84268946</t>
+  </si>
+  <si>
+    <t>57469695</t>
+  </si>
+  <si>
+    <t>59465003</t>
+  </si>
+  <si>
+    <t>64354728</t>
   </si>
   <si>
     <t>174055</t>
@@ -4173,13 +4173,13 @@
     <t>beta-lactamase activity</t>
   </si>
   <si>
-    <t>133623415</t>
-  </si>
-  <si>
-    <t>131908920</t>
-  </si>
-  <si>
-    <t>125429593</t>
+    <t>65564882</t>
+  </si>
+  <si>
+    <t>69896453</t>
+  </si>
+  <si>
+    <t>59064765</t>
   </si>
 </sst>
 </file>
@@ -4345,30 +4345,30 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.073484420776367</v>
+        <v>7.073531627655029</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -4392,13 +4392,13 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4427,19 +4427,19 @@
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
         <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
@@ -4451,7 +4451,7 @@
         <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -4486,19 +4486,19 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
         <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -4527,12 +4527,12 @@
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.8333868980407715</v>
+        <v>6.833332061767578</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4556,12 +4556,12 @@
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.61058235168457</v>
+        <v>6.683213710784912</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -4585,12 +4585,12 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.567303657531738</v>
+        <v>6.61058235168457</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -4614,7 +4614,7 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -4643,55 +4643,55 @@
         <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
         <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
         <v>81</v>
       </c>
       <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
         <v>82</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
         <v>83</v>
       </c>
-      <c r="U10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
         <v>84</v>
       </c>
-      <c r="W10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>85</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -4720,12 +4720,12 @@
         <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.500264644622803</v>
+        <v>6.500323295593262</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -4749,7 +4749,7 @@
         <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
         <v>92</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.463377475738525</v>
+        <v>6.463249683380127</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -4784,13 +4784,13 @@
         <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -4819,18 +4819,18 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
         <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.438098430633545</v>
+        <v>6.43816614151001</v>
       </c>
       <c r="B15" t="s">
         <v>102</v>
@@ -4854,7 +4854,7 @@
         <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -4883,19 +4883,19 @@
         <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
         <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
         <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -4924,12 +4924,12 @@
         <v>112</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.340968132019043</v>
+        <v>6.341222286224365</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -4953,31 +4953,31 @@
         <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
         <v>117</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N18" t="s">
         <v>118</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="P18" t="s">
         <v>119</v>
       </c>
       <c r="Q18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -5006,12 +5006,12 @@
         <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.303634166717529</v>
+        <v>6.303264141082764</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.303264141082764</v>
+        <v>6.274501323699951</v>
       </c>
       <c r="B21" t="s">
         <v>126</v>
@@ -5064,12 +5064,12 @@
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.274501323699951</v>
+        <v>6.267329216003418</v>
       </c>
       <c r="B22" t="s">
         <v>129</v>
@@ -5093,12 +5093,12 @@
         <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.267329216003418</v>
+        <v>6.262785911560059</v>
       </c>
       <c r="B23" t="s">
         <v>132</v>
@@ -5122,18 +5122,30 @@
         <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.262785911560059</v>
+        <v>6.2406110763549805</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -5148,27 +5160,15 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.2406110763549805</v>
+        <v>6.217693328857422</v>
       </c>
       <c r="B25" t="s">
         <v>140</v>
@@ -5192,12 +5192,12 @@
         <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.217580795288086</v>
+        <v>6.20950984954834</v>
       </c>
       <c r="B26" t="s">
         <v>143</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.20950984954834</v>
+        <v>6.2046637535095215</v>
       </c>
       <c r="B27" t="s">
         <v>146</v>
@@ -5250,12 +5250,12 @@
         <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.20454740524292</v>
+        <v>6.189552307128906</v>
       </c>
       <c r="B28" t="s">
         <v>149</v>
@@ -5279,7 +5279,7 @@
         <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -5308,7 +5308,7 @@
         <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -5337,13 +5337,13 @@
         <v>157</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
         <v>158</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L30" t="s">
         <v>159</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.155060291290283</v>
+        <v>6.155190467834473</v>
       </c>
       <c r="B31" t="s">
         <v>160</v>
@@ -5378,12 +5378,12 @@
         <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.12490177154541</v>
+        <v>6.126154899597168</v>
       </c>
       <c r="B32" t="s">
         <v>163</v>
@@ -5407,12 +5407,12 @@
         <v>165</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.107550621032715</v>
+        <v>6.108564853668213</v>
       </c>
       <c r="B33" t="s">
         <v>166</v>
@@ -5436,25 +5436,25 @@
         <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s">
         <v>169</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L33" t="s">
         <v>170</v>
       </c>
       <c r="M33" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="N33" t="s">
         <v>171</v>
       </c>
       <c r="O33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P33" t="s">
         <v>172</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.102441787719727</v>
+        <v>6.102001190185547</v>
       </c>
       <c r="B34" t="s">
         <v>174</v>
@@ -5489,7 +5489,7 @@
         <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -5518,7 +5518,7 @@
         <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -5547,7 +5547,7 @@
         <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -5576,7 +5576,7 @@
         <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -5605,12 +5605,12 @@
         <v>188</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.061518669128418</v>
+        <v>6.062324523925781</v>
       </c>
       <c r="B39" t="s">
         <v>189</v>
@@ -5634,13 +5634,13 @@
         <v>191</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s">
         <v>192</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -5669,7 +5669,7 @@
         <v>195</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -5698,12 +5698,12 @@
         <v>198</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.051564693450928</v>
+        <v>6.051894664764404</v>
       </c>
       <c r="B42" t="s">
         <v>199</v>
@@ -5727,19 +5727,19 @@
         <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
         <v>202</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L42" t="s">
         <v>203</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -5768,61 +5768,61 @@
         <v>206</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s">
         <v>207</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s">
         <v>208</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
         <v>209</v>
       </c>
       <c r="O43" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P43" t="s">
         <v>210</v>
       </c>
       <c r="Q43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R43" t="s">
         <v>211</v>
       </c>
       <c r="S43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
         <v>212</v>
       </c>
       <c r="U43" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="V43" t="s">
         <v>213</v>
       </c>
       <c r="W43" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X43" t="s">
         <v>214</v>
       </c>
       <c r="Y43" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="Z43" t="s">
         <v>215</v>
       </c>
       <c r="AA43" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
@@ -5851,7 +5851,7 @@
         <v>218</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -5880,13 +5880,13 @@
         <v>221</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J45" t="s">
         <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -5915,7 +5915,7 @@
         <v>225</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -5944,67 +5944,67 @@
         <v>228</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J47" t="s">
         <v>229</v>
       </c>
       <c r="K47" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L47" t="s">
         <v>230</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N47" t="s">
         <v>231</v>
       </c>
       <c r="O47" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="P47" t="s">
         <v>232</v>
       </c>
       <c r="Q47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R47" t="s">
         <v>233</v>
       </c>
       <c r="S47" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="T47" t="s">
         <v>234</v>
       </c>
       <c r="U47" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s">
         <v>235</v>
       </c>
       <c r="W47" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="X47" t="s">
         <v>236</v>
       </c>
       <c r="Y47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z47" t="s">
         <v>237</v>
       </c>
       <c r="AA47" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="AB47" t="s">
         <v>238</v>
       </c>
       <c r="AC47" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -6033,12 +6033,12 @@
         <v>241</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.982466697692871</v>
+        <v>5.982660293579102</v>
       </c>
       <c r="B49" t="s">
         <v>242</v>
@@ -6062,7 +6062,7 @@
         <v>244</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J49" t="s">
         <v>245</v>
@@ -6074,42 +6074,42 @@
         <v>246</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N49" t="s">
         <v>247</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="P49" t="s">
         <v>248</v>
       </c>
       <c r="Q49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R49" t="s">
         <v>249</v>
       </c>
       <c r="S49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T49" t="s">
         <v>250</v>
       </c>
       <c r="U49" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V49" t="s">
         <v>251</v>
       </c>
       <c r="W49" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.967503070831299</v>
+        <v>5.968103408813477</v>
       </c>
       <c r="B50" t="s">
         <v>252</v>
@@ -6133,7 +6133,7 @@
         <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -6162,13 +6162,13 @@
         <v>257</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s">
         <v>258</v>
       </c>
       <c r="K51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -6197,7 +6197,7 @@
         <v>261</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -6226,12 +6226,12 @@
         <v>264</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.928985595703125</v>
+        <v>5.9296417236328125</v>
       </c>
       <c r="B54" t="s">
         <v>265</v>
@@ -6255,12 +6255,12 @@
         <v>267</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.884054183959961</v>
+        <v>5.87621545791626</v>
       </c>
       <c r="B55" t="s">
         <v>268</v>
@@ -6284,7 +6284,7 @@
         <v>270</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -6313,7 +6313,7 @@
         <v>273</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
@@ -6342,7 +6342,7 @@
         <v>276</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -6371,12 +6371,12 @@
         <v>279</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.829275608062744</v>
+        <v>5.832294464111328</v>
       </c>
       <c r="B59" t="s">
         <v>280</v>
@@ -6400,19 +6400,19 @@
         <v>282</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J59" t="s">
         <v>283</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L59" t="s">
         <v>284</v>
       </c>
       <c r="M59" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -6441,7 +6441,7 @@
         <v>287</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -6470,84 +6470,84 @@
         <v>290</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s">
         <v>291</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L61" t="s">
         <v>292</v>
       </c>
       <c r="M61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N61" t="s">
         <v>293</v>
       </c>
       <c r="O61" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="P61" t="s">
         <v>294</v>
       </c>
       <c r="Q61" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="R61" t="s">
         <v>295</v>
       </c>
       <c r="S61" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T61" t="s">
         <v>296</v>
       </c>
       <c r="U61" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V61" t="s">
         <v>297</v>
       </c>
       <c r="W61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X61" t="s">
         <v>298</v>
       </c>
       <c r="Y61" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="Z61" t="s">
         <v>299</v>
       </c>
       <c r="AA61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AB61" t="s">
         <v>300</v>
       </c>
       <c r="AC61" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD61" t="s">
         <v>301</v>
       </c>
       <c r="AE61" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="AF61" t="s">
         <v>302</v>
       </c>
       <c r="AG61" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.781893253326416</v>
+        <v>5.782813549041748</v>
       </c>
       <c r="B62" t="s">
         <v>303</v>
@@ -6571,12 +6571,12 @@
         <v>305</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.768797874450684</v>
+        <v>5.766894340515137</v>
       </c>
       <c r="B63" t="s">
         <v>306</v>
@@ -6600,7 +6600,7 @@
         <v>308</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
@@ -6629,25 +6629,25 @@
         <v>311</v>
       </c>
       <c r="I64" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J64" t="s">
         <v>312</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L64" t="s">
         <v>313</v>
       </c>
       <c r="M64" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N64" t="s">
         <v>314</v>
       </c>
       <c r="O64" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -6676,7 +6676,7 @@
         <v>317</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -6705,18 +6705,18 @@
         <v>320</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s">
         <v>321</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.738653659820557</v>
+        <v>5.737294673919678</v>
       </c>
       <c r="B67" t="s">
         <v>322</v>
@@ -6740,18 +6740,18 @@
         <v>324</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J67" t="s">
         <v>325</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.718514919281006</v>
+        <v>5.719934463500977</v>
       </c>
       <c r="B68" t="s">
         <v>326</v>
@@ -6775,7 +6775,7 @@
         <v>328</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -6804,37 +6804,37 @@
         <v>331</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s">
         <v>332</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L69" t="s">
         <v>333</v>
       </c>
       <c r="M69" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N69" t="s">
         <v>334</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P69" t="s">
         <v>335</v>
       </c>
       <c r="Q69" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R69" t="s">
         <v>336</v>
       </c>
       <c r="S69" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70">
@@ -6863,13 +6863,13 @@
         <v>339</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="J70" t="s">
         <v>340</v>
       </c>
       <c r="K70" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
@@ -6898,12 +6898,12 @@
         <v>343</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.660421371459961</v>
+        <v>5.6616387367248535</v>
       </c>
       <c r="B72" t="s">
         <v>344</v>
@@ -6927,19 +6927,19 @@
         <v>346</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s">
         <v>347</v>
       </c>
       <c r="K72" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L72" t="s">
         <v>348</v>
       </c>
       <c r="M72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6968,12 +6968,12 @@
         <v>351</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.651390552520752</v>
+        <v>5.6518049240112305</v>
       </c>
       <c r="B74" t="s">
         <v>352</v>
@@ -6997,7 +6997,7 @@
         <v>354</v>
       </c>
       <c r="I74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -7026,37 +7026,37 @@
         <v>357</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s">
         <v>358</v>
       </c>
       <c r="K75" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="L75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q75" t="s">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="R75" t="s">
         <v>363</v>
       </c>
       <c r="S75" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -7085,13 +7085,13 @@
         <v>366</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>367</v>
       </c>
       <c r="K76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -7120,7 +7120,7 @@
         <v>370</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -7149,7 +7149,7 @@
         <v>373</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79">
@@ -7178,37 +7178,37 @@
         <v>376</v>
       </c>
       <c r="I79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s">
         <v>377</v>
       </c>
       <c r="K79" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L79" t="s">
         <v>378</v>
       </c>
       <c r="M79" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N79" t="s">
         <v>379</v>
       </c>
       <c r="O79" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P79" t="s">
         <v>380</v>
       </c>
       <c r="Q79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R79" t="s">
         <v>381</v>
       </c>
       <c r="S79" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -7237,7 +7237,7 @@
         <v>384</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J80" t="s">
         <v>385</v>
@@ -7249,31 +7249,31 @@
         <v>386</v>
       </c>
       <c r="M80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N80" t="s">
         <v>387</v>
       </c>
       <c r="O80" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="P80" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q80" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="R80" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S80" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T80" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U80" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -7302,49 +7302,49 @@
         <v>394</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s">
         <v>395</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L81" t="s">
         <v>396</v>
       </c>
       <c r="M81" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N81" t="s">
         <v>397</v>
       </c>
       <c r="O81" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="P81" t="s">
         <v>398</v>
       </c>
       <c r="Q81" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="R81" t="s">
         <v>399</v>
       </c>
       <c r="S81" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="T81" t="s">
         <v>400</v>
       </c>
       <c r="U81" t="s">
-        <v>362</v>
+        <v>53</v>
       </c>
       <c r="V81" t="s">
         <v>401</v>
       </c>
       <c r="W81" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82">
@@ -7373,7 +7373,7 @@
         <v>404</v>
       </c>
       <c r="I82" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
@@ -7402,12 +7402,12 @@
         <v>407</v>
       </c>
       <c r="I83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.531264305114746</v>
+        <v>5.531810760498047</v>
       </c>
       <c r="B84" t="s">
         <v>408</v>
@@ -7431,12 +7431,12 @@
         <v>410</v>
       </c>
       <c r="I84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.530716896057129</v>
+        <v>5.531264305114746</v>
       </c>
       <c r="B85" t="s">
         <v>411</v>
@@ -7460,12 +7460,12 @@
         <v>413</v>
       </c>
       <c r="I85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.473428726196289</v>
+        <v>5.474676609039307</v>
       </c>
       <c r="B86" t="s">
         <v>414</v>
@@ -7489,30 +7489,30 @@
         <v>416</v>
       </c>
       <c r="I86" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J86" t="s">
         <v>417</v>
       </c>
       <c r="K86" t="s">
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="L86" t="s">
         <v>418</v>
       </c>
       <c r="M86" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="N86" t="s">
         <v>419</v>
       </c>
       <c r="O86" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.469032287597656</v>
+        <v>5.469663143157959</v>
       </c>
       <c r="B87" t="s">
         <v>420</v>
@@ -7536,25 +7536,25 @@
         <v>422</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J87" t="s">
         <v>423</v>
       </c>
       <c r="K87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L87" t="s">
         <v>424</v>
       </c>
       <c r="M87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N87" t="s">
         <v>425</v>
       </c>
       <c r="O87" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -7583,19 +7583,19 @@
         <v>428</v>
       </c>
       <c r="I88" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="J88" t="s">
         <v>429</v>
       </c>
       <c r="K88" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="L88" t="s">
         <v>430</v>
       </c>
       <c r="M88" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="N88" t="s">
         <v>431</v>
@@ -7607,19 +7607,19 @@
         <v>433</v>
       </c>
       <c r="Q88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R88" t="s">
         <v>434</v>
       </c>
       <c r="S88" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="T88" t="s">
         <v>435</v>
       </c>
       <c r="U88" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89">
@@ -7648,7 +7648,7 @@
         <v>438</v>
       </c>
       <c r="I89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7677,7 +7677,7 @@
         <v>441</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91">
@@ -7706,7 +7706,7 @@
         <v>444</v>
       </c>
       <c r="I91" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
@@ -7735,37 +7735,37 @@
         <v>447</v>
       </c>
       <c r="I92" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J92" t="s">
         <v>448</v>
       </c>
       <c r="K92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L92" t="s">
         <v>449</v>
       </c>
       <c r="M92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N92" t="s">
         <v>450</v>
       </c>
       <c r="O92" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="P92" t="s">
         <v>451</v>
       </c>
       <c r="Q92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R92" t="s">
         <v>452</v>
       </c>
       <c r="S92" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -7794,13 +7794,13 @@
         <v>455</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J93" t="s">
         <v>456</v>
       </c>
       <c r="K93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -7829,12 +7829,12 @@
         <v>459</v>
       </c>
       <c r="I94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.408144950866699</v>
+        <v>5.409595012664795</v>
       </c>
       <c r="B95" t="s">
         <v>460</v>
@@ -7858,7 +7858,7 @@
         <v>462</v>
       </c>
       <c r="I95" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J95" t="s">
         <v>463</v>
@@ -7870,12 +7870,12 @@
         <v>464</v>
       </c>
       <c r="M95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.403765678405762</v>
+        <v>5.405960559844971</v>
       </c>
       <c r="B96" t="s">
         <v>465</v>
@@ -7899,7 +7899,7 @@
         <v>467</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97">
@@ -7928,7 +7928,7 @@
         <v>470</v>
       </c>
       <c r="I97" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98">
@@ -7957,43 +7957,43 @@
         <v>473</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J98" t="s">
         <v>474</v>
       </c>
       <c r="K98" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L98" t="s">
         <v>475</v>
       </c>
       <c r="M98" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="N98" t="s">
         <v>476</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="P98" t="s">
         <v>477</v>
       </c>
       <c r="Q98" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R98" t="s">
         <v>478</v>
       </c>
       <c r="S98" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="T98" t="s">
         <v>479</v>
       </c>
       <c r="U98" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
@@ -8022,7 +8022,7 @@
         <v>482</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
@@ -8051,7 +8051,7 @@
         <v>485</v>
       </c>
       <c r="I100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8080,19 +8080,19 @@
         <v>488</v>
       </c>
       <c r="I101" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="J101" t="s">
         <v>489</v>
       </c>
       <c r="K101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L101" t="s">
         <v>490</v>
       </c>
       <c r="M101" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8121,7 +8121,7 @@
         <v>493</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103">
@@ -8150,12 +8150,12 @@
         <v>496</v>
       </c>
       <c r="I103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5.337307453155518</v>
+        <v>5.338161468505859</v>
       </c>
       <c r="B104" t="s">
         <v>497</v>
@@ -8179,25 +8179,25 @@
         <v>499</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J104" t="s">
         <v>500</v>
       </c>
       <c r="K104" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L104" t="s">
         <v>501</v>
       </c>
       <c r="M104" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N104" t="s">
         <v>502</v>
       </c>
       <c r="O104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8226,7 +8226,7 @@
         <v>505</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -8255,7 +8255,7 @@
         <v>508</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107">
@@ -8284,18 +8284,18 @@
         <v>511</v>
       </c>
       <c r="I107" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J107" t="s">
         <v>512</v>
       </c>
       <c r="K107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.297024726867676</v>
+        <v>5.298896789550781</v>
       </c>
       <c r="B108" t="s">
         <v>513</v>
@@ -8319,66 +8319,66 @@
         <v>515</v>
       </c>
       <c r="I108" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="J108" t="s">
         <v>516</v>
       </c>
       <c r="K108" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="L108" t="s">
         <v>517</v>
       </c>
       <c r="M108" t="s">
+        <v>173</v>
+      </c>
+      <c r="N108" t="s">
         <v>518</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="s">
         <v>519</v>
       </c>
-      <c r="O108" t="s">
-        <v>50</v>
-      </c>
-      <c r="P108" t="s">
+      <c r="Q108" t="s">
+        <v>85</v>
+      </c>
+      <c r="R108" t="s">
         <v>520</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>80</v>
-      </c>
-      <c r="R108" t="s">
-        <v>521</v>
       </c>
       <c r="S108" t="s">
         <v>31</v>
       </c>
       <c r="T108" t="s">
+        <v>521</v>
+      </c>
+      <c r="U108" t="s">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s">
         <v>522</v>
       </c>
-      <c r="U108" t="s">
-        <v>33</v>
-      </c>
-      <c r="V108" t="s">
+      <c r="W108" t="s">
         <v>523</v>
-      </c>
-      <c r="W108" t="s">
-        <v>50</v>
       </c>
       <c r="X108" t="s">
         <v>524</v>
       </c>
       <c r="Y108" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z108" t="s">
         <v>525</v>
       </c>
       <c r="AA108" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5.2768659591674805</v>
+        <v>5.27980375289917</v>
       </c>
       <c r="B109" t="s">
         <v>526</v>
@@ -8402,7 +8402,7 @@
         <v>528</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -8431,19 +8431,19 @@
         <v>531</v>
       </c>
       <c r="I110" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="J110" t="s">
         <v>532</v>
       </c>
       <c r="K110" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="L110" t="s">
         <v>533</v>
       </c>
       <c r="M110" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
@@ -8472,13 +8472,13 @@
         <v>536</v>
       </c>
       <c r="I111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J111" t="s">
         <v>537</v>
       </c>
       <c r="K111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -8507,7 +8507,7 @@
         <v>540</v>
       </c>
       <c r="I112" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -8536,7 +8536,7 @@
         <v>541</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -8565,12 +8565,12 @@
         <v>544</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.245285511016846</v>
+        <v>5.244227409362793</v>
       </c>
       <c r="B115" t="s">
         <v>545</v>
@@ -8594,7 +8594,7 @@
         <v>547</v>
       </c>
       <c r="I115" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116">
@@ -8623,19 +8623,19 @@
         <v>550</v>
       </c>
       <c r="I116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J116" t="s">
         <v>551</v>
       </c>
       <c r="K116" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L116" t="s">
         <v>552</v>
       </c>
       <c r="M116" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
@@ -8664,13 +8664,13 @@
         <v>555</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J117" t="s">
         <v>556</v>
       </c>
       <c r="K117" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118">
@@ -8699,12 +8699,12 @@
         <v>559</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.205474853515625</v>
+        <v>5.206631660461426</v>
       </c>
       <c r="B119" t="s">
         <v>560</v>
@@ -8728,36 +8728,36 @@
         <v>562</v>
       </c>
       <c r="I119" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J119" t="s">
         <v>563</v>
       </c>
       <c r="K119" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L119" t="s">
         <v>564</v>
       </c>
       <c r="M119" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N119" t="s">
         <v>565</v>
       </c>
       <c r="O119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P119" t="s">
         <v>566</v>
       </c>
       <c r="Q119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5.200817584991455</v>
+        <v>5.204315185546875</v>
       </c>
       <c r="B120" t="s">
         <v>567</v>
@@ -8781,7 +8781,7 @@
         <v>569</v>
       </c>
       <c r="I120" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121">
@@ -8810,7 +8810,7 @@
         <v>572</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
@@ -8839,13 +8839,13 @@
         <v>575</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s">
         <v>576</v>
       </c>
       <c r="K122" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123">
@@ -8874,79 +8874,79 @@
         <v>579</v>
       </c>
       <c r="I123" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="J123" t="s">
         <v>580</v>
       </c>
       <c r="K123" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L123" t="s">
         <v>581</v>
       </c>
       <c r="M123" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N123" t="s">
         <v>582</v>
       </c>
       <c r="O123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P123" t="s">
         <v>583</v>
       </c>
       <c r="Q123" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R123" t="s">
         <v>584</v>
       </c>
       <c r="S123" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="T123" t="s">
         <v>585</v>
       </c>
       <c r="U123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V123" t="s">
         <v>586</v>
       </c>
       <c r="W123" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X123" t="s">
         <v>587</v>
       </c>
       <c r="Y123" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Z123" t="s">
         <v>588</v>
       </c>
       <c r="AA123" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="AB123" t="s">
         <v>589</v>
       </c>
       <c r="AC123" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="AD123" t="s">
         <v>590</v>
       </c>
       <c r="AE123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF123" t="s">
         <v>591</v>
       </c>
       <c r="AG123" t="s">
-        <v>391</v>
+        <v>53</v>
       </c>
       <c r="AH123" t="s">
         <v>592</v>
@@ -8958,7 +8958,7 @@
         <v>593</v>
       </c>
       <c r="AK123" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124">
@@ -8987,7 +8987,7 @@
         <v>596</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125">
@@ -9016,19 +9016,19 @@
         <v>599</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J125" t="s">
         <v>600</v>
       </c>
       <c r="K125" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L125" t="s">
         <v>601</v>
       </c>
       <c r="M125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -9057,31 +9057,31 @@
         <v>604</v>
       </c>
       <c r="I126" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J126" t="s">
         <v>605</v>
       </c>
       <c r="K126" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L126" t="s">
         <v>606</v>
       </c>
       <c r="M126" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N126" t="s">
         <v>607</v>
       </c>
       <c r="O126" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P126" t="s">
         <v>608</v>
       </c>
       <c r="Q126" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
@@ -9110,7 +9110,7 @@
         <v>611</v>
       </c>
       <c r="I127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -9139,19 +9139,19 @@
         <v>614</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J128" t="s">
         <v>615</v>
       </c>
       <c r="K128" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L128" t="s">
         <v>616</v>
       </c>
       <c r="M128" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129">
@@ -9180,18 +9180,18 @@
         <v>619</v>
       </c>
       <c r="I129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J129" t="s">
         <v>620</v>
       </c>
       <c r="K129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5.129754543304443</v>
+        <v>5.128373622894287</v>
       </c>
       <c r="B130" t="s">
         <v>621</v>
@@ -9215,7 +9215,7 @@
         <v>623</v>
       </c>
       <c r="I130" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
@@ -9244,7 +9244,7 @@
         <v>626</v>
       </c>
       <c r="I131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -9273,19 +9273,19 @@
         <v>629</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J132" t="s">
         <v>630</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L132" t="s">
         <v>631</v>
       </c>
       <c r="M132" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133">
@@ -9314,7 +9314,7 @@
         <v>634</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134">
@@ -9343,7 +9343,7 @@
         <v>637</v>
       </c>
       <c r="I134" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J134" t="s">
         <v>638</v>
@@ -9378,25 +9378,25 @@
         <v>641</v>
       </c>
       <c r="I135" t="s">
-        <v>35</v>
+        <v>432</v>
       </c>
       <c r="J135" t="s">
         <v>642</v>
       </c>
       <c r="K135" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="L135" t="s">
         <v>643</v>
       </c>
       <c r="M135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N135" t="s">
         <v>644</v>
       </c>
       <c r="O135" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136">
@@ -9425,7 +9425,7 @@
         <v>647</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137">
@@ -9454,13 +9454,13 @@
         <v>650</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J137" t="s">
         <v>651</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -9489,7 +9489,7 @@
         <v>654</v>
       </c>
       <c r="I138" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -9518,7 +9518,7 @@
         <v>657</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140">
@@ -9547,7 +9547,7 @@
         <v>660</v>
       </c>
       <c r="I140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -9576,13 +9576,13 @@
         <v>663</v>
       </c>
       <c r="I141" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J141" t="s">
         <v>664</v>
       </c>
       <c r="K141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142">
@@ -9611,7 +9611,7 @@
         <v>667</v>
       </c>
       <c r="I142" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J142" t="s">
         <v>668</v>
@@ -9623,25 +9623,25 @@
         <v>669</v>
       </c>
       <c r="M142" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="N142" t="s">
         <v>670</v>
       </c>
       <c r="O142" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P142" t="s">
         <v>671</v>
       </c>
       <c r="Q142" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="R142" t="s">
         <v>672</v>
       </c>
       <c r="S142" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143">
@@ -9670,19 +9670,19 @@
         <v>675</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J143" t="s">
         <v>676</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L143" t="s">
         <v>677</v>
       </c>
       <c r="M143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144">
@@ -9711,13 +9711,13 @@
         <v>680</v>
       </c>
       <c r="I144" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J144" t="s">
         <v>681</v>
       </c>
       <c r="K144" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145">
@@ -9746,13 +9746,13 @@
         <v>684</v>
       </c>
       <c r="I145" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J145" t="s">
         <v>685</v>
       </c>
       <c r="K145" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146">
@@ -9781,7 +9781,7 @@
         <v>688</v>
       </c>
       <c r="I146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -9810,19 +9810,19 @@
         <v>691</v>
       </c>
       <c r="I147" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J147" t="s">
         <v>692</v>
       </c>
       <c r="K147" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L147" t="s">
         <v>693</v>
       </c>
       <c r="M147" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148">
@@ -9851,12 +9851,12 @@
         <v>696</v>
       </c>
       <c r="I148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.813287258148193</v>
+        <v>4.807535171508789</v>
       </c>
       <c r="B149" t="s">
         <v>697</v>
@@ -9880,7 +9880,7 @@
         <v>699</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150">
@@ -9909,19 +9909,19 @@
         <v>702</v>
       </c>
       <c r="I150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J150" t="s">
         <v>703</v>
       </c>
       <c r="K150" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L150" t="s">
         <v>704</v>
       </c>
       <c r="M150" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
@@ -9950,7 +9950,7 @@
         <v>707</v>
       </c>
       <c r="I151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
@@ -9979,43 +9979,43 @@
         <v>710</v>
       </c>
       <c r="I152" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J152" t="s">
         <v>711</v>
       </c>
       <c r="K152" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L152" t="s">
         <v>712</v>
       </c>
       <c r="M152" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N152" t="s">
         <v>713</v>
       </c>
       <c r="O152" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="P152" t="s">
         <v>714</v>
       </c>
       <c r="Q152" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="R152" t="s">
         <v>715</v>
       </c>
       <c r="S152" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="T152" t="s">
         <v>716</v>
       </c>
       <c r="U152" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153">
@@ -10044,7 +10044,7 @@
         <v>719</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154">
@@ -10073,7 +10073,7 @@
         <v>722</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155">
@@ -10102,7 +10102,7 @@
         <v>725</v>
       </c>
       <c r="I155" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156">
@@ -10131,7 +10131,7 @@
         <v>728</v>
       </c>
       <c r="I156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
@@ -10166,19 +10166,19 @@
         <v>732</v>
       </c>
       <c r="K157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L157" t="s">
         <v>733</v>
       </c>
       <c r="M157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N157" t="s">
         <v>734</v>
       </c>
       <c r="O157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158">
@@ -10207,25 +10207,25 @@
         <v>737</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J158" t="s">
         <v>738</v>
       </c>
       <c r="K158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L158" t="s">
         <v>739</v>
       </c>
       <c r="M158" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N158" t="s">
         <v>740</v>
       </c>
       <c r="O158" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159">
@@ -10254,13 +10254,13 @@
         <v>743</v>
       </c>
       <c r="I159" t="s">
+        <v>36</v>
+      </c>
+      <c r="J159" t="s">
         <v>744</v>
       </c>
-      <c r="J159" t="s">
+      <c r="K159" t="s">
         <v>745</v>
-      </c>
-      <c r="K159" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="160">
@@ -10289,13 +10289,13 @@
         <v>748</v>
       </c>
       <c r="I160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J160" t="s">
         <v>749</v>
       </c>
       <c r="K160" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161">
@@ -10324,7 +10324,7 @@
         <v>752</v>
       </c>
       <c r="I161" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162">
@@ -10353,19 +10353,19 @@
         <v>755</v>
       </c>
       <c r="I162" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J162" t="s">
         <v>756</v>
       </c>
       <c r="K162" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L162" t="s">
         <v>757</v>
       </c>
       <c r="M162" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163">
@@ -10394,19 +10394,19 @@
         <v>760</v>
       </c>
       <c r="I163" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J163" t="s">
         <v>761</v>
       </c>
       <c r="K163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L163" t="s">
         <v>762</v>
       </c>
       <c r="M163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164">
@@ -10435,7 +10435,7 @@
         <v>765</v>
       </c>
       <c r="I164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
@@ -10464,7 +10464,7 @@
         <v>768</v>
       </c>
       <c r="I165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166">
@@ -10493,19 +10493,19 @@
         <v>771</v>
       </c>
       <c r="I166" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J166" t="s">
         <v>772</v>
       </c>
       <c r="K166" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L166" t="s">
         <v>773</v>
       </c>
       <c r="M166" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167">
@@ -10534,7 +10534,7 @@
         <v>776</v>
       </c>
       <c r="I167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168">
@@ -10563,7 +10563,7 @@
         <v>779</v>
       </c>
       <c r="I168" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169">
@@ -10592,7 +10592,7 @@
         <v>782</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170">
@@ -10621,7 +10621,7 @@
         <v>785</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171">
@@ -10650,7 +10650,7 @@
         <v>788</v>
       </c>
       <c r="I171" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172">
@@ -10679,7 +10679,7 @@
         <v>791</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173">
@@ -10708,19 +10708,19 @@
         <v>794</v>
       </c>
       <c r="I173" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J173" t="s">
         <v>795</v>
       </c>
       <c r="K173" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="L173" t="s">
         <v>796</v>
       </c>
       <c r="M173" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174">
@@ -10749,19 +10749,19 @@
         <v>799</v>
       </c>
       <c r="I174" t="s">
+        <v>44</v>
+      </c>
+      <c r="J174" t="s">
         <v>800</v>
       </c>
-      <c r="J174" t="s">
+      <c r="K174" t="s">
         <v>801</v>
-      </c>
-      <c r="K174" t="s">
-        <v>45</v>
       </c>
       <c r="L174" t="s">
         <v>802</v>
       </c>
       <c r="M174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175">
@@ -10790,19 +10790,19 @@
         <v>805</v>
       </c>
       <c r="I175" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J175" t="s">
         <v>806</v>
       </c>
       <c r="K175" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="L175" t="s">
         <v>807</v>
       </c>
       <c r="M175" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
@@ -10831,31 +10831,31 @@
         <v>810</v>
       </c>
       <c r="I176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J176" t="s">
         <v>811</v>
       </c>
       <c r="K176" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L176" t="s">
         <v>812</v>
       </c>
       <c r="M176" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N176" t="s">
         <v>813</v>
       </c>
       <c r="O176" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P176" t="s">
         <v>814</v>
       </c>
       <c r="Q176" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
@@ -11000,7 +11000,7 @@
         <v>829</v>
       </c>
       <c r="I181" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182">
@@ -11029,13 +11029,13 @@
         <v>832</v>
       </c>
       <c r="I182" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J182" t="s">
         <v>833</v>
       </c>
       <c r="K182" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L182" t="s">
         <v>834</v>
@@ -11070,7 +11070,7 @@
         <v>837</v>
       </c>
       <c r="I183" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184">
@@ -11099,7 +11099,7 @@
         <v>840</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185">
@@ -11128,7 +11128,7 @@
         <v>843</v>
       </c>
       <c r="I185" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
@@ -11157,7 +11157,7 @@
         <v>846</v>
       </c>
       <c r="I186" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187">
@@ -11215,7 +11215,7 @@
         <v>853</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189">
@@ -11273,7 +11273,7 @@
         <v>859</v>
       </c>
       <c r="I190" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191">
@@ -11360,13 +11360,13 @@
         <v>868</v>
       </c>
       <c r="I193" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="J193" t="s">
         <v>869</v>
       </c>
       <c r="K193" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194">
@@ -11519,7 +11519,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.472809314727783</v>
+        <v>7.472584247589111</v>
       </c>
       <c r="B2" t="s">
         <v>876</v>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.332648754119873</v>
+        <v>7.328995704650879</v>
       </c>
       <c r="B4" t="s">
         <v>887</v>
@@ -11607,12 +11607,12 @@
         <v>889</v>
       </c>
       <c r="I4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.032844543457031</v>
+        <v>7.032344341278076</v>
       </c>
       <c r="B5" t="s">
         <v>890</v>
@@ -11636,7 +11636,7 @@
         <v>892</v>
       </c>
       <c r="I5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6">
@@ -11665,7 +11665,7 @@
         <v>895</v>
       </c>
       <c r="I6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7">
@@ -11694,7 +11694,7 @@
         <v>898</v>
       </c>
       <c r="I7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8">
@@ -11723,12 +11723,12 @@
         <v>901</v>
       </c>
       <c r="I8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.488112449645996</v>
+        <v>6.482396125793457</v>
       </c>
       <c r="B9" t="s">
         <v>902</v>
@@ -11752,7 +11752,7 @@
         <v>904</v>
       </c>
       <c r="I9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10">
@@ -11781,7 +11781,7 @@
         <v>907</v>
       </c>
       <c r="I10" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11">
@@ -11839,7 +11839,7 @@
         <v>914</v>
       </c>
       <c r="I12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13">
@@ -11868,7 +11868,7 @@
         <v>917</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -11897,7 +11897,7 @@
         <v>920</v>
       </c>
       <c r="I14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15">
@@ -11926,7 +11926,7 @@
         <v>923</v>
       </c>
       <c r="I15" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16">
@@ -11955,7 +11955,7 @@
         <v>926</v>
       </c>
       <c r="I16" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.028375148773193</v>
+        <v>7.02835750579834</v>
       </c>
       <c r="B2" t="s">
         <v>927</v>
@@ -12074,31 +12074,31 @@
         <v>930</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>931</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>932</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
         <v>933</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>934</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -12127,12 +12127,12 @@
         <v>937</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.241997241973877</v>
+        <v>6.251684188842773</v>
       </c>
       <c r="B4" t="s">
         <v>938</v>
@@ -12156,12 +12156,12 @@
         <v>940</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.226278305053711</v>
+        <v>6.226940155029297</v>
       </c>
       <c r="B5" t="s">
         <v>941</v>
@@ -12185,7 +12185,7 @@
         <v>943</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -12214,7 +12214,7 @@
         <v>946</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -12243,7 +12243,7 @@
         <v>949</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -12272,13 +12272,13 @@
         <v>952</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>953</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -12307,19 +12307,19 @@
         <v>956</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>957</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
         <v>958</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -12348,13 +12348,13 @@
         <v>961</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
         <v>962</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -12383,12 +12383,12 @@
         <v>965</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.902355194091797</v>
+        <v>5.903053283691406</v>
       </c>
       <c r="B12" t="s">
         <v>966</v>
@@ -12412,12 +12412,12 @@
         <v>968</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.806085109710693</v>
+        <v>5.808980464935303</v>
       </c>
       <c r="B13" t="s">
         <v>969</v>
@@ -12441,7 +12441,7 @@
         <v>971</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -12470,13 +12470,13 @@
         <v>974</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
         <v>975</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -12505,18 +12505,18 @@
         <v>978</v>
       </c>
       <c r="I15" t="s">
-        <v>800</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>979</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.697396755218506</v>
+        <v>5.6981425285339355</v>
       </c>
       <c r="B16" t="s">
         <v>980</v>
@@ -12540,12 +12540,12 @@
         <v>982</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.695901870727539</v>
+        <v>5.697769641876221</v>
       </c>
       <c r="B17" t="s">
         <v>983</v>
@@ -12569,12 +12569,12 @@
         <v>985</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.66082763671875</v>
+        <v>5.662043571472168</v>
       </c>
       <c r="B18" t="s">
         <v>986</v>
@@ -12598,13 +12598,13 @@
         <v>988</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
         <v>989</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -12633,7 +12633,7 @@
         <v>992</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -12662,12 +12662,12 @@
         <v>995</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.6050333976745605</v>
+        <v>5.609167575836182</v>
       </c>
       <c r="B21" t="s">
         <v>996</v>
@@ -12691,7 +12691,7 @@
         <v>998</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -12720,24 +12720,24 @@
         <v>1001</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>1002</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
         <v>1003</v>
       </c>
       <c r="M22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.522423267364502</v>
+        <v>5.573947906494141</v>
       </c>
       <c r="B23" t="s">
         <v>1004</v>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.488776206970215</v>
+        <v>5.522423267364502</v>
       </c>
       <c r="B24" t="s">
         <v>1007</v>
@@ -12790,12 +12790,12 @@
         <v>1009</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.467767715454102</v>
+        <v>5.493575096130371</v>
       </c>
       <c r="B25" t="s">
         <v>1010</v>
@@ -12819,12 +12819,12 @@
         <v>1012</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.336451530456543</v>
+        <v>5.348281383514404</v>
       </c>
       <c r="B26" t="s">
         <v>1013</v>
@@ -12848,12 +12848,12 @@
         <v>1015</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.316288948059082</v>
+        <v>5.339014053344727</v>
       </c>
       <c r="B27" t="s">
         <v>1016</v>
@@ -12877,7 +12877,7 @@
         <v>1018</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -12906,7 +12906,7 @@
         <v>1021</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -12935,12 +12935,12 @@
         <v>1024</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.069194316864014</v>
+        <v>5.072352886199951</v>
       </c>
       <c r="B30" t="s">
         <v>1025</v>
@@ -12964,7 +12964,7 @@
         <v>1027</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -13059,7 +13059,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.0743937492370605</v>
+        <v>7.074424743652344</v>
       </c>
       <c r="B2" t="s">
         <v>1028</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.875175952911377</v>
+        <v>6.875423908233643</v>
       </c>
       <c r="B4" t="s">
         <v>1037</v>
@@ -13152,7 +13152,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.852858066558838</v>
+        <v>6.852884292602539</v>
       </c>
       <c r="B5" t="s">
         <v>1040</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.768449783325195</v>
+        <v>6.775145530700684</v>
       </c>
       <c r="B7" t="s">
         <v>1048</v>
@@ -13234,13 +13234,13 @@
         <v>1050</v>
       </c>
       <c r="I7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J7" t="s">
         <v>1051</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1052</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="8">
@@ -13298,7 +13298,7 @@
         <v>1059</v>
       </c>
       <c r="I9" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10">
@@ -13361,7 +13361,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.550783634185791</v>
+        <v>6.554791450500488</v>
       </c>
       <c r="B12" t="s">
         <v>1067</v>
@@ -13385,24 +13385,24 @@
         <v>1069</v>
       </c>
       <c r="I12" t="s">
-        <v>880</v>
+        <v>1052</v>
       </c>
       <c r="J12" t="s">
         <v>1070</v>
       </c>
       <c r="K12" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="L12" t="s">
         <v>1071</v>
       </c>
       <c r="M12" t="s">
-        <v>1032</v>
+        <v>880</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.544727802276611</v>
+        <v>6.549001693725586</v>
       </c>
       <c r="B13" t="s">
         <v>1072</v>
@@ -13524,7 +13524,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.439384460449219</v>
+        <v>6.439722061157227</v>
       </c>
       <c r="B17" t="s">
         <v>1085</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.436944484710693</v>
+        <v>6.437284469604492</v>
       </c>
       <c r="B19" t="s">
         <v>1092</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.385944843292236</v>
+        <v>6.391338348388672</v>
       </c>
       <c r="B21" t="s">
         <v>1098</v>
@@ -13664,7 +13664,7 @@
         <v>1100</v>
       </c>
       <c r="I21" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22">
@@ -13693,7 +13693,7 @@
         <v>1103</v>
       </c>
       <c r="I22" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="J22" t="s">
         <v>1104</v>
@@ -13705,12 +13705,12 @@
         <v>1105</v>
       </c>
       <c r="M22" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.3490309715271</v>
+        <v>6.351850986480713</v>
       </c>
       <c r="B23" t="s">
         <v>1106</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.347864627838135</v>
+        <v>6.350775241851807</v>
       </c>
       <c r="B24" t="s">
         <v>1110</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.347196578979492</v>
+        <v>6.350111484527588</v>
       </c>
       <c r="B25" t="s">
         <v>1113</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.337905406951904</v>
+        <v>6.340883255004883</v>
       </c>
       <c r="B26" t="s">
         <v>1116</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.282527923583984</v>
+        <v>6.28359317779541</v>
       </c>
       <c r="B27" t="s">
         <v>1119</v>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.281848430633545</v>
+        <v>6.2817511558532715</v>
       </c>
       <c r="B28" t="s">
         <v>1123</v>
@@ -13896,7 +13896,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.24390983581543</v>
+        <v>6.249073028564453</v>
       </c>
       <c r="B29" t="s">
         <v>1126</v>
@@ -13920,12 +13920,12 @@
         <v>1128</v>
       </c>
       <c r="I29" t="s">
-        <v>1032</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.242210388183594</v>
+        <v>6.245180130004883</v>
       </c>
       <c r="B30" t="s">
         <v>1129</v>
@@ -13949,7 +13949,7 @@
         <v>1131</v>
       </c>
       <c r="I30" t="s">
-        <v>1088</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31">
@@ -13983,7 +13983,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.213620662689209</v>
+        <v>6.2191548347473145</v>
       </c>
       <c r="B32" t="s">
         <v>1135</v>
@@ -14041,7 +14041,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.144261360168457</v>
+        <v>6.15022087097168</v>
       </c>
       <c r="B34" t="s">
         <v>1141</v>
@@ -14070,7 +14070,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.136050701141357</v>
+        <v>6.143059730529785</v>
       </c>
       <c r="B35" t="s">
         <v>1144</v>
@@ -14099,7 +14099,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.1326398849487305</v>
+        <v>6.1356425285339355</v>
       </c>
       <c r="B36" t="s">
         <v>1147</v>
@@ -14123,12 +14123,12 @@
         <v>1149</v>
       </c>
       <c r="I36" t="s">
-        <v>1056</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.129892349243164</v>
+        <v>6.1326398849487305</v>
       </c>
       <c r="B37" t="s">
         <v>1150</v>
@@ -14152,12 +14152,12 @@
         <v>1152</v>
       </c>
       <c r="I37" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.119147777557373</v>
+        <v>6.130443096160889</v>
       </c>
       <c r="B38" t="s">
         <v>1153</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.109432697296143</v>
+        <v>6.1102986335754395</v>
       </c>
       <c r="B39" t="s">
         <v>1156</v>
@@ -14297,18 +14297,18 @@
         <v>1167</v>
       </c>
       <c r="I42" t="s">
-        <v>1032</v>
+        <v>911</v>
       </c>
       <c r="J42" t="s">
         <v>1168</v>
       </c>
       <c r="K42" t="s">
-        <v>911</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.942349433898926</v>
+        <v>5.943832874298096</v>
       </c>
       <c r="B43" t="s">
         <v>1169</v>
@@ -14511,7 +14511,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.8377299308776855</v>
+        <v>5.841494560241699</v>
       </c>
       <c r="B50" t="s">
         <v>1190</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.834476470947266</v>
+        <v>5.8377299308776855</v>
       </c>
       <c r="B51" t="s">
         <v>1193</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.7241644859313965</v>
+        <v>5.724865436553955</v>
       </c>
       <c r="B57" t="s">
         <v>1211</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.599459648132324</v>
+        <v>5.608709812164307</v>
       </c>
       <c r="B60" t="s">
         <v>1220</v>
@@ -15062,7 +15062,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.408144950866699</v>
+        <v>5.431473255157471</v>
       </c>
       <c r="B69" t="s">
         <v>1247</v>
@@ -15178,7 +15178,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.327800273895264</v>
+        <v>5.331281661987305</v>
       </c>
       <c r="B73" t="s">
         <v>1259</v>
@@ -15790,7 +15790,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.000251293182373</v>
+        <v>7.318053245544434</v>
       </c>
       <c r="B2" t="s">
         <v>1313</v>
@@ -15814,7 +15814,7 @@
         <v>1316</v>
       </c>
       <c r="I2" t="s">
-        <v>880</v>
+        <v>1052</v>
       </c>
       <c r="J2" t="s">
         <v>1317</v>
@@ -15825,7 +15825,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.937525749206543</v>
+        <v>7.012089252471924</v>
       </c>
       <c r="B3" t="s">
         <v>1318</v>
@@ -15849,18 +15849,24 @@
         <v>1320</v>
       </c>
       <c r="I3" t="s">
-        <v>1056</v>
+        <v>880</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K3" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.910151481628418</v>
+        <v>6.938404560089111</v>
       </c>
       <c r="B4" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C4" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D4" t="s">
         <v>1315</v>
@@ -15875,16 +15881,10 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="I4" t="s">
-        <v>911</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5">
@@ -15913,24 +15913,24 @@
         <v>1327</v>
       </c>
       <c r="I5" t="s">
-        <v>884</v>
+        <v>1328</v>
       </c>
       <c r="J5" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="K5" t="s">
-        <v>1329</v>
+        <v>880</v>
       </c>
       <c r="L5" t="s">
         <v>1330</v>
       </c>
       <c r="M5" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.652426242828369</v>
+        <v>6.651680946350098</v>
       </c>
       <c r="B6" t="s">
         <v>1331</v>
@@ -15983,7 +15983,7 @@
         <v>1336</v>
       </c>
       <c r="I7" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="8">
@@ -16128,7 +16128,7 @@
         <v>1351</v>
       </c>
       <c r="I12" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13">
@@ -16157,7 +16157,7 @@
         <v>1354</v>
       </c>
       <c r="I13" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="14">
@@ -16186,7 +16186,7 @@
         <v>1357</v>
       </c>
       <c r="I14" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15">
@@ -16215,7 +16215,7 @@
         <v>1360</v>
       </c>
       <c r="I15" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16">
@@ -16244,7 +16244,7 @@
         <v>1363</v>
       </c>
       <c r="I16" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17">
@@ -16331,7 +16331,7 @@
         <v>1372</v>
       </c>
       <c r="I19" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="20">
@@ -16389,13 +16389,13 @@
         <v>1378</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s">
         <v>1379</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
         <v>1380</v>
@@ -16407,13 +16407,13 @@
         <v>1381</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s">
         <v>1382</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -16442,13 +16442,13 @@
         <v>1385</v>
       </c>
       <c r="I22" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="J22" t="s">
         <v>1386</v>
       </c>
       <c r="K22" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
       <c r="L22" t="s">
         <v>1387</v>
